--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:E67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1592,7 @@
         <v>2589</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E67" si="1">IF(C66="Pending","",D66/SUMIFS(D:D,A:A,A66,B:B,B66,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E66:E78" si="1">IF(C66="Pending","",D66/SUMIFS(D:D,A:A,A66,B:B,B66,C:C,"&lt;&gt;Pending"))</f>
         <v>0.47296309828279137</v>
       </c>
     </row>
@@ -1615,7 +1615,202 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>2861</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>0.64364454443194596</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1143</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>0.25714285714285712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>358</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>8.053993250843644E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>83</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>1.8672665916760405E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>1378</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>3695</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>0.92213626154230099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>312</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>7.7863738457699033E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>1816</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>2993</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>0.5254564606741573</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>2703</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>0.4745435393258427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>127</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1592,7 @@
         <v>2589</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E78" si="1">IF(C66="Pending","",D66/SUMIFS(D:D,A:A,A66,B:B,B66,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E66:E89" si="1">IF(C66="Pending","",D66/SUMIFS(D:D,A:A,A66,B:B,B66,C:C,"&lt;&gt;Pending"))</f>
         <v>0.47296309828279137</v>
       </c>
     </row>
@@ -1808,6 +1808,204 @@
         <v>127</v>
       </c>
       <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>2972</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>0.64217804667242873</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1218</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>0.26318063958513399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <v>350</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>7.5626620570440797E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>88</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>1.9014693171996541E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>1451</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>3873</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>0.91799004503436832</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>346</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>8.2009954965631668E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>1860</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>3109</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>0.52534640081108486</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>2809</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>0.4746535991889152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>161</v>
+      </c>
+      <c r="E89" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1592,7 @@
         <v>2589</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E89" si="1">IF(C66="Pending","",D66/SUMIFS(D:D,A:A,A66,B:B,B66,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E66:E100" si="1">IF(C66="Pending","",D66/SUMIFS(D:D,A:A,A66,B:B,B66,C:C,"&lt;&gt;Pending"))</f>
         <v>0.47296309828279137</v>
       </c>
     </row>
@@ -2006,6 +2006,204 @@
         <v>161</v>
       </c>
       <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3094</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>0.63479688141157165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1298</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>0.26631103816167417</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92">
+        <v>378</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>7.7554370127205577E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>104</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>2.1337710299548625E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>1388</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1">
+        <v>4062</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>0.91363022941970307</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>384</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>8.6369770580296892E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>1816</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>3209</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>0.52572083879423326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>2895</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>0.47427916120576669</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>158</v>
+      </c>
+      <c r="E100" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+      <selection activeCell="D109" sqref="D109:D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1592,7 @@
         <v>2589</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E100" si="1">IF(C66="Pending","",D66/SUMIFS(D:D,A:A,A66,B:B,B66,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E66:E111" si="1">IF(C66="Pending","",D66/SUMIFS(D:D,A:A,A66,B:B,B66,C:C,"&lt;&gt;Pending"))</f>
         <v>0.47296309828279137</v>
       </c>
     </row>
@@ -2204,6 +2204,204 @@
         <v>158</v>
       </c>
       <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>3195</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>0.6278247199842798</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1383</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>0.27176262527019063</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>397</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>7.8011397131067001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>114</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>2.2401257614462565E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>1500</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>4222</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>0.91345737775854607</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>400</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>8.6542622241453912E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>1967</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>3369</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>0.52484810718180397</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110">
+        <v>3050</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>0.47515189281819598</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>170</v>
+      </c>
+      <c r="E111" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Not Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>Hispanic</t>
   </si>
   <si>
     <t>Female</t>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>Other/Two or More Races</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
   </si>
 </sst>
 </file>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109:D111"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,19 +411,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -431,7 +431,7 @@
         <v>43929</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -449,7 +449,7 @@
         <v>43929</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -467,10 +467,10 @@
         <v>43929</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>106</v>
@@ -485,7 +485,7 @@
         <v>43929</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -503,7 +503,7 @@
         <v>43929</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -521,7 +521,7 @@
         <v>43929</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -539,10 +539,10 @@
         <v>43929</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>155</v>
@@ -557,7 +557,7 @@
         <v>43929</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -575,10 +575,10 @@
         <v>43929</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>2247</v>
@@ -593,10 +593,10 @@
         <v>43929</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>2028</v>
@@ -611,7 +611,7 @@
         <v>43929</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -629,7 +629,7 @@
         <v>43930</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>43930</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -665,10 +665,10 @@
         <v>43930</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
         <v>186</v>
@@ -683,7 +683,7 @@
         <v>43930</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -701,7 +701,7 @@
         <v>43930</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -719,7 +719,7 @@
         <v>43930</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -737,10 +737,10 @@
         <v>43930</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
         <v>184</v>
@@ -755,7 +755,7 @@
         <v>43930</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -773,10 +773,10 @@
         <v>43930</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
         <v>2398</v>
@@ -791,10 +791,10 @@
         <v>43930</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1">
         <v>2155</v>
@@ -809,7 +809,7 @@
         <v>43930</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
@@ -827,7 +827,7 @@
         <v>43931</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>43931</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>43931</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>224</v>
@@ -881,7 +881,7 @@
         <v>43931</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -899,7 +899,7 @@
         <v>43931</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -917,7 +917,7 @@
         <v>43931</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -935,10 +935,10 @@
         <v>43931</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <v>204</v>
@@ -953,7 +953,7 @@
         <v>43931</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -971,10 +971,10 @@
         <v>43931</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>2514</v>
@@ -989,10 +989,10 @@
         <v>43931</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>2267</v>
@@ -1007,7 +1007,7 @@
         <v>43931</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -1025,7 +1025,7 @@
         <v>43932</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>43932</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -1061,10 +1061,10 @@
         <v>43932</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>224</v>
@@ -1079,7 +1079,7 @@
         <v>43932</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -1097,7 +1097,7 @@
         <v>43932</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -1115,7 +1115,7 @@
         <v>43932</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1133,10 +1133,10 @@
         <v>43932</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D41">
         <v>225</v>
@@ -1151,7 +1151,7 @@
         <v>43932</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>43932</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>2651</v>
@@ -1187,10 +1187,10 @@
         <v>43932</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>2372</v>
@@ -1205,7 +1205,7 @@
         <v>43932</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -1223,7 +1223,7 @@
         <v>43933</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>43933</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -1259,10 +1259,10 @@
         <v>43933</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48">
         <v>266</v>
@@ -1277,7 +1277,7 @@
         <v>43933</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -1295,7 +1295,7 @@
         <v>43933</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1313,7 +1313,7 @@
         <v>43933</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1331,10 +1331,10 @@
         <v>43933</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D52">
         <v>269</v>
@@ -1349,7 +1349,7 @@
         <v>43933</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -1367,10 +1367,10 @@
         <v>43933</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>2740</v>
@@ -1385,10 +1385,10 @@
         <v>43933</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>2464</v>
@@ -1403,7 +1403,7 @@
         <v>43933</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -1421,7 +1421,7 @@
         <v>43934</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>43934</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1457,10 +1457,10 @@
         <v>43934</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>266</v>
@@ -1475,7 +1475,7 @@
         <v>43934</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -1493,7 +1493,7 @@
         <v>43934</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1511,7 +1511,7 @@
         <v>43934</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1529,10 +1529,10 @@
         <v>43934</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>283</v>
@@ -1547,7 +1547,7 @@
         <v>43934</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -1565,10 +1565,10 @@
         <v>43934</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65">
         <v>2885</v>
@@ -1583,16 +1583,16 @@
         <v>43934</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66">
         <v>2589</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E111" si="1">IF(C66="Pending","",D66/SUMIFS(D:D,A:A,A66,B:B,B66,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E66:E122" si="1">IF(C66="Pending","",D66/SUMIFS(D:D,A:A,A66,B:B,B66,C:C,"&lt;&gt;Pending"))</f>
         <v>0.47296309828279137</v>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
         <v>43934</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -1619,7 +1619,7 @@
         <v>43935</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>43935</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -1655,10 +1655,10 @@
         <v>43935</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>358</v>
@@ -1673,7 +1673,7 @@
         <v>43935</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -1691,7 +1691,7 @@
         <v>43935</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -1709,7 +1709,7 @@
         <v>43935</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -1727,10 +1727,10 @@
         <v>43935</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D74">
         <v>312</v>
@@ -1745,7 +1745,7 @@
         <v>43935</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1763,10 +1763,10 @@
         <v>43935</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76">
         <v>2993</v>
@@ -1781,10 +1781,10 @@
         <v>43935</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>2703</v>
@@ -1799,7 +1799,7 @@
         <v>43935</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -1817,7 +1817,7 @@
         <v>43936</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>43936</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -1853,10 +1853,10 @@
         <v>43936</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81">
         <v>350</v>
@@ -1871,7 +1871,7 @@
         <v>43936</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -1889,7 +1889,7 @@
         <v>43936</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1907,7 +1907,7 @@
         <v>43936</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -1925,10 +1925,10 @@
         <v>43936</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D85">
         <v>346</v>
@@ -1943,7 +1943,7 @@
         <v>43936</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -1961,10 +1961,10 @@
         <v>43936</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87">
         <v>3109</v>
@@ -1979,10 +1979,10 @@
         <v>43936</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>2809</v>
@@ -1997,7 +1997,7 @@
         <v>43936</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -2015,7 +2015,7 @@
         <v>43937</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>43937</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -2051,10 +2051,10 @@
         <v>43937</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92">
         <v>378</v>
@@ -2069,7 +2069,7 @@
         <v>43937</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -2087,7 +2087,7 @@
         <v>43937</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>3</v>
@@ -2105,7 +2105,7 @@
         <v>43937</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -2123,10 +2123,10 @@
         <v>43937</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D96">
         <v>384</v>
@@ -2141,7 +2141,7 @@
         <v>43937</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
         <v>3</v>
@@ -2159,10 +2159,10 @@
         <v>43937</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98">
         <v>3209</v>
@@ -2177,10 +2177,10 @@
         <v>43937</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99">
         <v>2895</v>
@@ -2195,7 +2195,7 @@
         <v>43937</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
@@ -2213,7 +2213,7 @@
         <v>43938</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>43938</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -2249,10 +2249,10 @@
         <v>43938</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D103">
         <v>397</v>
@@ -2267,7 +2267,7 @@
         <v>43938</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -2285,7 +2285,7 @@
         <v>43938</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>3</v>
@@ -2303,7 +2303,7 @@
         <v>43938</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -2321,10 +2321,10 @@
         <v>43938</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D107">
         <v>400</v>
@@ -2339,7 +2339,7 @@
         <v>43938</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
         <v>3</v>
@@ -2357,10 +2357,10 @@
         <v>43938</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109">
         <v>3369</v>
@@ -2375,10 +2375,10 @@
         <v>43938</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110">
         <v>3050</v>
@@ -2393,7 +2393,7 @@
         <v>43938</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
         <v>3</v>
@@ -2402,6 +2402,204 @@
         <v>170</v>
       </c>
       <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>3282</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>0.62573879885605344</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1437</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>0.27397521448999046</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114">
+        <v>403</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>7.6835081029551958E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>123</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>2.3450905624404196E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>1517</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>4358</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>0.91038228535617294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118">
+        <v>429</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>8.9617714643827034E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>1975</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>3442</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>0.52405602923264316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>3126</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>0.47594397076735689</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>194</v>
+      </c>
+      <c r="E122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122:E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1592,7 @@
         <v>2589</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E122" si="1">IF(C66="Pending","",D66/SUMIFS(D:D,A:A,A66,B:B,B66,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E66:E129" si="1">IF(C66="Pending","",D66/SUMIFS(D:D,A:A,A66,B:B,B66,C:C,"&lt;&gt;Pending"))</f>
         <v>0.47296309828279137</v>
       </c>
     </row>
@@ -2601,6 +2601,204 @@
       </c>
       <c r="E122" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>3347</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>0.62385834109972038</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1470</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>0.27399813606710161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125">
+        <v>418</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>7.7912395153774461E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>130</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>2.4231127679403542E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>1705</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>4456</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>0.90994486420257303</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129">
+        <v>441</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>9.0055135797426994E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>2173</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" ref="E130:E133" si="2">IF(C130="Pending","",D130/SUMIFS(D:D,A:A,A130,B:B,B130,C:C,"&lt;&gt;Pending"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>3586</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="2"/>
+        <v>0.52396259497369957</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132">
+        <v>3258</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>0.47603740502630043</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133">
+        <v>226</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122:E133"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2744,7 +2744,7 @@
         <v>2173</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" ref="E130:E133" si="2">IF(C130="Pending","",D130/SUMIFS(D:D,A:A,A130,B:B,B130,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E130:E144" si="2">IF(C130="Pending","",D130/SUMIFS(D:D,A:A,A130,B:B,B130,C:C,"&lt;&gt;Pending"))</f>
         <v/>
       </c>
     </row>
@@ -2798,6 +2798,204 @@
         <v>226</v>
       </c>
       <c r="E133" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>3406</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>0.62073993074539824</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1512</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>0.27556041552761074</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136">
+        <v>431</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>7.854929834153454E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>138</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>2.5150355385456534E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>1751</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>4548</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>0.90687936191425722</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140">
+        <v>467</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>9.3120638085742766E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>2223</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>3644</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>0.51997716894977164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143">
+        <v>3364</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>0.4800228310502283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>230</v>
+      </c>
+      <c r="E144" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -90,12 +90,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,10 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,7 +414,7 @@
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -422,7 +430,7 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -439,7 +447,7 @@
       <c r="D2" s="1">
         <v>1140</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f t="shared" ref="E2:E65" si="0">IF(C2="Pending","",D2/SUMIFS(D:D,A:A,A2,B:B,B2,C:C,"&lt;&gt;Pending"))</f>
         <v>0.71339173967459324</v>
       </c>
@@ -457,7 +465,7 @@
       <c r="D3">
         <v>320</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
         <v>0.20025031289111389</v>
       </c>
@@ -475,7 +483,7 @@
       <c r="D4">
         <v>106</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>6.6332916145181484E-2</v>
       </c>
@@ -493,7 +501,7 @@
       <c r="D5">
         <v>32</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>2.002503128911139E-2</v>
       </c>
@@ -511,7 +519,7 @@
       <c r="D6" s="1">
         <v>2764</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -529,7 +537,7 @@
       <c r="D7" s="1">
         <v>2349</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>0.93809904153354629</v>
       </c>
@@ -547,7 +555,7 @@
       <c r="D8">
         <v>155</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>6.1900958466453673E-2</v>
       </c>
@@ -565,7 +573,7 @@
       <c r="D9" s="1">
         <v>1858</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -583,7 +591,7 @@
       <c r="D10" s="1">
         <v>2247</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>0.52561403508771931</v>
       </c>
@@ -601,7 +609,7 @@
       <c r="D11" s="1">
         <v>2028</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>0.47438596491228069</v>
       </c>
@@ -619,7 +627,7 @@
       <c r="D12">
         <v>87</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -637,7 +645,7 @@
       <c r="D13" s="1">
         <v>2013</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>0.68985606579849212</v>
       </c>
@@ -655,7 +663,7 @@
       <c r="D14" s="1">
         <v>668</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>0.2289239204934887</v>
       </c>
@@ -673,7 +681,7 @@
       <c r="D15" s="1">
         <v>186</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>6.3742289239204941E-2</v>
       </c>
@@ -691,7 +699,7 @@
       <c r="D16" s="1">
         <v>51</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>1.7477724468814255E-2</v>
       </c>
@@ -709,7 +717,7 @@
       <c r="D17" s="1">
         <v>1716</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -727,7 +735,7 @@
       <c r="D18" s="1">
         <v>2607</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>0.93407380867072731</v>
       </c>
@@ -745,7 +753,7 @@
       <c r="D19" s="1">
         <v>184</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>6.592619132927266E-2</v>
       </c>
@@ -763,7 +771,7 @@
       <c r="D20" s="1">
         <v>1843</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -781,7 +789,7 @@
       <c r="D21" s="1">
         <v>2398</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>0.52668570173511975</v>
       </c>
@@ -799,7 +807,7 @@
       <c r="D22" s="1">
         <v>2155</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>0.47331429826488031</v>
       </c>
@@ -817,7 +825,7 @@
       <c r="D23">
         <v>81</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -835,7 +843,7 @@
       <c r="D24">
         <v>2305</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>0.6793398172708518</v>
       </c>
@@ -853,7 +861,7 @@
       <c r="D25">
         <v>803</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
         <v>0.2366637194223401</v>
       </c>
@@ -871,7 +879,7 @@
       <c r="D26">
         <v>224</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <f t="shared" si="0"/>
         <v>6.6018272914824636E-2</v>
       </c>
@@ -889,7 +897,7 @@
       <c r="D27">
         <v>61</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <f t="shared" si="0"/>
         <v>1.7978190391983496E-2</v>
       </c>
@@ -907,7 +915,7 @@
       <c r="D28" s="1">
         <v>1469</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -925,7 +933,7 @@
       <c r="D29">
         <v>2806</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <f t="shared" si="0"/>
         <v>0.9322259136212625</v>
       </c>
@@ -943,7 +951,7 @@
       <c r="D30">
         <v>204</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <f t="shared" si="0"/>
         <v>6.7774086378737539E-2</v>
       </c>
@@ -961,7 +969,7 @@
       <c r="D31">
         <v>1852</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E31" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -979,7 +987,7 @@
       <c r="D32">
         <v>2514</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <f t="shared" si="0"/>
         <v>0.52583141602175276</v>
       </c>
@@ -997,7 +1005,7 @@
       <c r="D33">
         <v>2267</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <f t="shared" si="0"/>
         <v>0.47416858397824724</v>
       </c>
@@ -1015,7 +1023,7 @@
       <c r="D34">
         <v>81</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1033,7 +1041,7 @@
       <c r="D35">
         <v>2305</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <f t="shared" si="0"/>
         <v>0.67974048953111177</v>
       </c>
@@ -1051,7 +1059,7 @@
       <c r="D36">
         <v>801</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <f t="shared" si="0"/>
         <v>0.2362135063403126</v>
       </c>
@@ -1069,7 +1077,7 @@
       <c r="D37">
         <v>224</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <f t="shared" si="0"/>
         <v>6.6057210262459448E-2</v>
       </c>
@@ -1087,7 +1095,7 @@
       <c r="D38">
         <v>61</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <f t="shared" si="0"/>
         <v>1.7988793866116189E-2</v>
       </c>
@@ -1105,7 +1113,7 @@
       <c r="D39" s="1">
         <v>1723</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1123,7 +1131,7 @@
       <c r="D40">
         <v>2940</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <f t="shared" si="0"/>
         <v>0.92890995260663511</v>
       </c>
@@ -1141,7 +1149,7 @@
       <c r="D41">
         <v>225</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <f t="shared" si="0"/>
         <v>7.1090047393364927E-2</v>
       </c>
@@ -1159,7 +1167,7 @@
       <c r="D42">
         <v>1949</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E42" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1177,7 +1185,7 @@
       <c r="D43">
         <v>2651</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <f t="shared" si="0"/>
         <v>0.52777224766076047</v>
       </c>
@@ -1195,7 +1203,7 @@
       <c r="D44">
         <v>2372</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <f t="shared" si="0"/>
         <v>0.47222775233923953</v>
       </c>
@@ -1213,7 +1221,7 @@
       <c r="D45">
         <v>91</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E45" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1231,7 +1239,7 @@
       <c r="D46">
         <v>2504</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <f t="shared" si="0"/>
         <v>0.66507304116865873</v>
       </c>
@@ -1249,7 +1257,7 @@
       <c r="D47">
         <v>922</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <f t="shared" si="0"/>
         <v>0.24488711819389111</v>
       </c>
@@ -1267,7 +1275,7 @@
       <c r="D48">
         <v>266</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <f t="shared" si="0"/>
         <v>7.0650730411686583E-2</v>
       </c>
@@ -1285,7 +1293,7 @@
       <c r="D49">
         <v>73</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <f t="shared" si="0"/>
         <v>1.9389110225763614E-2</v>
       </c>
@@ -1303,7 +1311,7 @@
       <c r="D50">
         <v>1543</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E50" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1321,7 +1329,7 @@
       <c r="D51">
         <v>3291</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <f t="shared" si="0"/>
         <v>0.92443820224719098</v>
       </c>
@@ -1339,7 +1347,7 @@
       <c r="D52">
         <v>269</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <f t="shared" si="0"/>
         <v>7.5561797752808996E-2</v>
       </c>
@@ -1357,7 +1365,7 @@
       <c r="D53">
         <v>1748</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E53" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1375,7 +1383,7 @@
       <c r="D54">
         <v>2740</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <f t="shared" si="0"/>
         <v>0.52651806302843962</v>
       </c>
@@ -1393,7 +1401,7 @@
       <c r="D55">
         <v>2464</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <f t="shared" si="0"/>
         <v>0.47348193697156032</v>
       </c>
@@ -1411,7 +1419,7 @@
       <c r="D56">
         <v>104</v>
       </c>
-      <c r="E56" t="str">
+      <c r="E56" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1429,7 +1437,7 @@
       <c r="D57">
         <v>2504</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <f t="shared" si="0"/>
         <v>0.66560340244550775</v>
       </c>
@@ -1447,7 +1455,7 @@
       <c r="D58">
         <v>919</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <f t="shared" si="0"/>
         <v>0.2442849548112706</v>
       </c>
@@ -1465,7 +1473,7 @@
       <c r="D59">
         <v>266</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <f t="shared" si="0"/>
         <v>7.0707070707070704E-2</v>
       </c>
@@ -1483,7 +1491,7 @@
       <c r="D60">
         <v>73</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <f t="shared" si="0"/>
         <v>1.9404572036150983E-2</v>
       </c>
@@ -1501,7 +1509,7 @@
       <c r="D61">
         <v>1848</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E61" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1519,7 +1527,7 @@
       <c r="D62">
         <v>3453</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <f t="shared" si="0"/>
         <v>0.92425053533190582</v>
       </c>
@@ -1537,7 +1545,7 @@
       <c r="D63">
         <v>283</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <f t="shared" si="0"/>
         <v>7.5749464668094221E-2</v>
       </c>
@@ -1555,7 +1563,7 @@
       <c r="D64">
         <v>1874</v>
       </c>
-      <c r="E64" t="str">
+      <c r="E64" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1573,7 +1581,7 @@
       <c r="D65">
         <v>2885</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <f t="shared" si="0"/>
         <v>0.52703690171720863</v>
       </c>
@@ -1591,7 +1599,7 @@
       <c r="D66">
         <v>2589</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <f t="shared" ref="E66:E129" si="1">IF(C66="Pending","",D66/SUMIFS(D:D,A:A,A66,B:B,B66,C:C,"&lt;&gt;Pending"))</f>
         <v>0.47296309828279137</v>
       </c>
@@ -1609,7 +1617,7 @@
       <c r="D67">
         <v>136</v>
       </c>
-      <c r="E67" t="str">
+      <c r="E67" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1627,7 +1635,7 @@
       <c r="D68">
         <v>2861</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <f t="shared" si="1"/>
         <v>0.64364454443194596</v>
       </c>
@@ -1645,7 +1653,7 @@
       <c r="D69">
         <v>1143</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <f t="shared" si="1"/>
         <v>0.25714285714285712</v>
       </c>
@@ -1663,7 +1671,7 @@
       <c r="D70">
         <v>358</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <f t="shared" si="1"/>
         <v>8.053993250843644E-2</v>
       </c>
@@ -1681,7 +1689,7 @@
       <c r="D71">
         <v>83</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <f t="shared" si="1"/>
         <v>1.8672665916760405E-2</v>
       </c>
@@ -1699,7 +1707,7 @@
       <c r="D72">
         <v>1378</v>
       </c>
-      <c r="E72" t="str">
+      <c r="E72" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1717,7 +1725,7 @@
       <c r="D73">
         <v>3695</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <f t="shared" si="1"/>
         <v>0.92213626154230099</v>
       </c>
@@ -1735,7 +1743,7 @@
       <c r="D74">
         <v>312</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <f t="shared" si="1"/>
         <v>7.7863738457699033E-2</v>
       </c>
@@ -1753,7 +1761,7 @@
       <c r="D75">
         <v>1816</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E75" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1771,7 +1779,7 @@
       <c r="D76">
         <v>2993</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <f t="shared" si="1"/>
         <v>0.5254564606741573</v>
       </c>
@@ -1789,7 +1797,7 @@
       <c r="D77">
         <v>2703</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <f t="shared" si="1"/>
         <v>0.4745435393258427</v>
       </c>
@@ -1807,7 +1815,7 @@
       <c r="D78">
         <v>127</v>
       </c>
-      <c r="E78" t="str">
+      <c r="E78" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1825,7 +1833,7 @@
       <c r="D79">
         <v>2972</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <f t="shared" si="1"/>
         <v>0.64217804667242873</v>
       </c>
@@ -1843,7 +1851,7 @@
       <c r="D80">
         <v>1218</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <f t="shared" si="1"/>
         <v>0.26318063958513399</v>
       </c>
@@ -1861,7 +1869,7 @@
       <c r="D81">
         <v>350</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <f t="shared" si="1"/>
         <v>7.5626620570440797E-2</v>
       </c>
@@ -1879,7 +1887,7 @@
       <c r="D82">
         <v>88</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <f t="shared" si="1"/>
         <v>1.9014693171996541E-2</v>
       </c>
@@ -1897,7 +1905,7 @@
       <c r="D83">
         <v>1451</v>
       </c>
-      <c r="E83" t="str">
+      <c r="E83" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1915,7 +1923,7 @@
       <c r="D84">
         <v>3873</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <f t="shared" si="1"/>
         <v>0.91799004503436832</v>
       </c>
@@ -1933,7 +1941,7 @@
       <c r="D85">
         <v>346</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <f t="shared" si="1"/>
         <v>8.2009954965631668E-2</v>
       </c>
@@ -1951,7 +1959,7 @@
       <c r="D86">
         <v>1860</v>
       </c>
-      <c r="E86" t="str">
+      <c r="E86" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1969,7 +1977,7 @@
       <c r="D87">
         <v>3109</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <f t="shared" si="1"/>
         <v>0.52534640081108486</v>
       </c>
@@ -1987,7 +1995,7 @@
       <c r="D88">
         <v>2809</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <f t="shared" si="1"/>
         <v>0.4746535991889152</v>
       </c>
@@ -2005,7 +2013,7 @@
       <c r="D89">
         <v>161</v>
       </c>
-      <c r="E89" t="str">
+      <c r="E89" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2023,7 +2031,7 @@
       <c r="D90" s="1">
         <v>3094</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <f t="shared" si="1"/>
         <v>0.63479688141157165</v>
       </c>
@@ -2041,7 +2049,7 @@
       <c r="D91">
         <v>1298</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <f t="shared" si="1"/>
         <v>0.26631103816167417</v>
       </c>
@@ -2059,7 +2067,7 @@
       <c r="D92">
         <v>378</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <f t="shared" si="1"/>
         <v>7.7554370127205577E-2</v>
       </c>
@@ -2077,7 +2085,7 @@
       <c r="D93">
         <v>104</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <f t="shared" si="1"/>
         <v>2.1337710299548625E-2</v>
       </c>
@@ -2095,7 +2103,7 @@
       <c r="D94">
         <v>1388</v>
       </c>
-      <c r="E94" t="str">
+      <c r="E94" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2113,7 +2121,7 @@
       <c r="D95" s="1">
         <v>4062</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <f t="shared" si="1"/>
         <v>0.91363022941970307</v>
       </c>
@@ -2131,7 +2139,7 @@
       <c r="D96">
         <v>384</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <f t="shared" si="1"/>
         <v>8.6369770580296892E-2</v>
       </c>
@@ -2149,7 +2157,7 @@
       <c r="D97">
         <v>1816</v>
       </c>
-      <c r="E97" t="str">
+      <c r="E97" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2167,7 +2175,7 @@
       <c r="D98">
         <v>3209</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <f t="shared" si="1"/>
         <v>0.52572083879423326</v>
       </c>
@@ -2185,7 +2193,7 @@
       <c r="D99">
         <v>2895</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <f t="shared" si="1"/>
         <v>0.47427916120576669</v>
       </c>
@@ -2203,7 +2211,7 @@
       <c r="D100">
         <v>158</v>
       </c>
-      <c r="E100" t="str">
+      <c r="E100" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2221,7 +2229,7 @@
       <c r="D101">
         <v>3195</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <f t="shared" si="1"/>
         <v>0.6278247199842798</v>
       </c>
@@ -2239,7 +2247,7 @@
       <c r="D102">
         <v>1383</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <f t="shared" si="1"/>
         <v>0.27176262527019063</v>
       </c>
@@ -2257,7 +2265,7 @@
       <c r="D103">
         <v>397</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <f t="shared" si="1"/>
         <v>7.8011397131067001E-2</v>
       </c>
@@ -2275,7 +2283,7 @@
       <c r="D104">
         <v>114</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <f t="shared" si="1"/>
         <v>2.2401257614462565E-2</v>
       </c>
@@ -2293,7 +2301,7 @@
       <c r="D105">
         <v>1500</v>
       </c>
-      <c r="E105" t="str">
+      <c r="E105" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2311,7 +2319,7 @@
       <c r="D106">
         <v>4222</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <f t="shared" si="1"/>
         <v>0.91345737775854607</v>
       </c>
@@ -2329,7 +2337,7 @@
       <c r="D107">
         <v>400</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <f t="shared" si="1"/>
         <v>8.6542622241453912E-2</v>
       </c>
@@ -2347,7 +2355,7 @@
       <c r="D108">
         <v>1967</v>
       </c>
-      <c r="E108" t="str">
+      <c r="E108" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2365,7 +2373,7 @@
       <c r="D109">
         <v>3369</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <f t="shared" si="1"/>
         <v>0.52484810718180397</v>
       </c>
@@ -2383,7 +2391,7 @@
       <c r="D110">
         <v>3050</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <f t="shared" si="1"/>
         <v>0.47515189281819598</v>
       </c>
@@ -2401,7 +2409,7 @@
       <c r="D111">
         <v>170</v>
       </c>
-      <c r="E111" t="str">
+      <c r="E111" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2419,7 +2427,7 @@
       <c r="D112">
         <v>3282</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <f t="shared" si="1"/>
         <v>0.62573879885605344</v>
       </c>
@@ -2437,7 +2445,7 @@
       <c r="D113">
         <v>1437</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="3">
         <f t="shared" si="1"/>
         <v>0.27397521448999046</v>
       </c>
@@ -2455,7 +2463,7 @@
       <c r="D114">
         <v>403</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="3">
         <f t="shared" si="1"/>
         <v>7.6835081029551958E-2</v>
       </c>
@@ -2473,7 +2481,7 @@
       <c r="D115">
         <v>123</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="3">
         <f t="shared" si="1"/>
         <v>2.3450905624404196E-2</v>
       </c>
@@ -2491,7 +2499,7 @@
       <c r="D116">
         <v>1517</v>
       </c>
-      <c r="E116" t="str">
+      <c r="E116" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2509,7 +2517,7 @@
       <c r="D117">
         <v>4358</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="3">
         <f t="shared" si="1"/>
         <v>0.91038228535617294</v>
       </c>
@@ -2527,7 +2535,7 @@
       <c r="D118">
         <v>429</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="3">
         <f t="shared" si="1"/>
         <v>8.9617714643827034E-2</v>
       </c>
@@ -2545,7 +2553,7 @@
       <c r="D119">
         <v>1975</v>
       </c>
-      <c r="E119" t="str">
+      <c r="E119" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2563,7 +2571,7 @@
       <c r="D120">
         <v>3442</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="3">
         <f t="shared" si="1"/>
         <v>0.52405602923264316</v>
       </c>
@@ -2581,7 +2589,7 @@
       <c r="D121">
         <v>3126</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="3">
         <f t="shared" si="1"/>
         <v>0.47594397076735689</v>
       </c>
@@ -2599,7 +2607,7 @@
       <c r="D122">
         <v>194</v>
       </c>
-      <c r="E122" t="str">
+      <c r="E122" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2617,7 +2625,7 @@
       <c r="D123">
         <v>3347</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="3">
         <f t="shared" si="1"/>
         <v>0.62385834109972038</v>
       </c>
@@ -2635,7 +2643,7 @@
       <c r="D124">
         <v>1470</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="3">
         <f t="shared" si="1"/>
         <v>0.27399813606710161</v>
       </c>
@@ -2653,7 +2661,7 @@
       <c r="D125">
         <v>418</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="3">
         <f t="shared" si="1"/>
         <v>7.7912395153774461E-2</v>
       </c>
@@ -2671,7 +2679,7 @@
       <c r="D126">
         <v>130</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="3">
         <f t="shared" si="1"/>
         <v>2.4231127679403542E-2</v>
       </c>
@@ -2689,7 +2697,7 @@
       <c r="D127">
         <v>1705</v>
       </c>
-      <c r="E127" t="str">
+      <c r="E127" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2707,7 +2715,7 @@
       <c r="D128">
         <v>4456</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="3">
         <f t="shared" si="1"/>
         <v>0.90994486420257303</v>
       </c>
@@ -2725,7 +2733,7 @@
       <c r="D129">
         <v>441</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="3">
         <f t="shared" si="1"/>
         <v>9.0055135797426994E-2</v>
       </c>
@@ -2743,8 +2751,8 @@
       <c r="D130">
         <v>2173</v>
       </c>
-      <c r="E130" t="str">
-        <f t="shared" ref="E130:E144" si="2">IF(C130="Pending","",D130/SUMIFS(D:D,A:A,A130,B:B,B130,C:C,"&lt;&gt;Pending"))</f>
+      <c r="E130" s="3" t="str">
+        <f t="shared" ref="E130:E155" si="2">IF(C130="Pending","",D130/SUMIFS(D:D,A:A,A130,B:B,B130,C:C,"&lt;&gt;Pending"))</f>
         <v/>
       </c>
     </row>
@@ -2761,7 +2769,7 @@
       <c r="D131">
         <v>3586</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="3">
         <f t="shared" si="2"/>
         <v>0.52396259497369957</v>
       </c>
@@ -2779,7 +2787,7 @@
       <c r="D132">
         <v>3258</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="3">
         <f t="shared" si="2"/>
         <v>0.47603740502630043</v>
       </c>
@@ -2797,7 +2805,7 @@
       <c r="D133">
         <v>226</v>
       </c>
-      <c r="E133" t="str">
+      <c r="E133" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2815,7 +2823,7 @@
       <c r="D134">
         <v>3406</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="3">
         <f t="shared" si="2"/>
         <v>0.62073993074539824</v>
       </c>
@@ -2833,7 +2841,7 @@
       <c r="D135">
         <v>1512</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="3">
         <f t="shared" si="2"/>
         <v>0.27556041552761074</v>
       </c>
@@ -2851,7 +2859,7 @@
       <c r="D136">
         <v>431</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="3">
         <f t="shared" si="2"/>
         <v>7.854929834153454E-2</v>
       </c>
@@ -2869,7 +2877,7 @@
       <c r="D137">
         <v>138</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="3">
         <f t="shared" si="2"/>
         <v>2.5150355385456534E-2</v>
       </c>
@@ -2887,7 +2895,7 @@
       <c r="D138">
         <v>1751</v>
       </c>
-      <c r="E138" t="str">
+      <c r="E138" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2905,7 +2913,7 @@
       <c r="D139">
         <v>4548</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="3">
         <f t="shared" si="2"/>
         <v>0.90687936191425722</v>
       </c>
@@ -2923,7 +2931,7 @@
       <c r="D140">
         <v>467</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="3">
         <f t="shared" si="2"/>
         <v>9.3120638085742766E-2</v>
       </c>
@@ -2941,7 +2949,7 @@
       <c r="D141">
         <v>2223</v>
       </c>
-      <c r="E141" t="str">
+      <c r="E141" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2959,7 +2967,7 @@
       <c r="D142">
         <v>3644</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="3">
         <f t="shared" si="2"/>
         <v>0.51997716894977164</v>
       </c>
@@ -2977,7 +2985,7 @@
       <c r="D143">
         <v>3364</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="3">
         <f t="shared" si="2"/>
         <v>0.4800228310502283</v>
       </c>
@@ -2995,7 +3003,205 @@
       <c r="D144">
         <v>230</v>
       </c>
-      <c r="E144" t="str">
+      <c r="E144" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>3535</v>
+      </c>
+      <c r="E145" s="3">
+        <f t="shared" si="2"/>
+        <v>0.61768303337410446</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>1582</v>
+      </c>
+      <c r="E146" s="3">
+        <f t="shared" si="2"/>
+        <v>0.27642844661890614</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147">
+        <v>455</v>
+      </c>
+      <c r="E147" s="3">
+        <f t="shared" si="2"/>
+        <v>7.9503756770924347E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>151</v>
+      </c>
+      <c r="E148" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6384763236064999E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>1671</v>
+      </c>
+      <c r="E149" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>4732</v>
+      </c>
+      <c r="E150" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89979083475945998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151">
+        <v>527</v>
+      </c>
+      <c r="E151" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10020916524054002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>2135</v>
+      </c>
+      <c r="E152" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153">
+        <v>3729</v>
+      </c>
+      <c r="E153" s="3">
+        <f t="shared" si="2"/>
+        <v>0.51914241960183771</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>3454</v>
+      </c>
+      <c r="E154" s="3">
+        <f t="shared" si="2"/>
+        <v>0.48085758039816234</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>211</v>
+      </c>
+      <c r="E155" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
+      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2752,7 +2752,7 @@
         <v>2173</v>
       </c>
       <c r="E130" s="3" t="str">
-        <f t="shared" ref="E130:E155" si="2">IF(C130="Pending","",D130/SUMIFS(D:D,A:A,A130,B:B,B130,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E130:E166" si="2">IF(C130="Pending","",D130/SUMIFS(D:D,A:A,A130,B:B,B130,C:C,"&lt;&gt;Pending"))</f>
         <v/>
       </c>
     </row>
@@ -3202,6 +3202,204 @@
         <v>211</v>
       </c>
       <c r="E155" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>3637</v>
+      </c>
+      <c r="E156" s="3">
+        <f t="shared" si="2"/>
+        <v>0.61498140006763613</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1620</v>
+      </c>
+      <c r="E157" s="3">
+        <f t="shared" si="2"/>
+        <v>0.27392627663172137</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158">
+        <v>489</v>
+      </c>
+      <c r="E158" s="3">
+        <f t="shared" si="2"/>
+        <v>8.2685153872167738E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>168</v>
+      </c>
+      <c r="E159" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8407169428474807E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>1928</v>
+      </c>
+      <c r="E160" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>4874</v>
+      </c>
+      <c r="E161" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89365603226989365</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162">
+        <v>580</v>
+      </c>
+      <c r="E162" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10634396773010635</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>2388</v>
+      </c>
+      <c r="E163" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164">
+        <v>3880</v>
+      </c>
+      <c r="E164" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5121436114044351</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165">
+        <v>3696</v>
+      </c>
+      <c r="E165" s="3">
+        <f t="shared" si="2"/>
+        <v>0.48785638859556496</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>266</v>
+      </c>
+      <c r="E166" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2752,7 +2752,7 @@
         <v>2173</v>
       </c>
       <c r="E130" s="3" t="str">
-        <f t="shared" ref="E130:E166" si="2">IF(C130="Pending","",D130/SUMIFS(D:D,A:A,A130,B:B,B130,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E130:E177" si="2">IF(C130="Pending","",D130/SUMIFS(D:D,A:A,A130,B:B,B130,C:C,"&lt;&gt;Pending"))</f>
         <v/>
       </c>
     </row>
@@ -3400,6 +3400,204 @@
         <v>266</v>
       </c>
       <c r="E166" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>3718</v>
+      </c>
+      <c r="E167" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6117143797301744</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>1669</v>
+      </c>
+      <c r="E168" s="3">
+        <f t="shared" si="2"/>
+        <v>0.27459690687726224</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169">
+        <v>176</v>
+      </c>
+      <c r="E169" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8956893715037842E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>515</v>
+      </c>
+      <c r="E170" s="3">
+        <f t="shared" si="2"/>
+        <v>8.4731819677525508E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>2188</v>
+      </c>
+      <c r="E171" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172">
+        <v>4996</v>
+      </c>
+      <c r="E172" s="3">
+        <f t="shared" si="2"/>
+        <v>0.88928444286222852</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173">
+        <v>622</v>
+      </c>
+      <c r="E173" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11071555713777145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>2648</v>
+      </c>
+      <c r="E174" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175">
+        <v>3950</v>
+      </c>
+      <c r="E175" s="3">
+        <f t="shared" si="2"/>
+        <v>0.49344159900062462</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176">
+        <v>4055</v>
+      </c>
+      <c r="E176" s="3">
+        <f t="shared" si="2"/>
+        <v>0.50655840099937544</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>261</v>
+      </c>
+      <c r="E177" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
+      <selection pane="bottomLeft" activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2752,7 +2752,7 @@
         <v>2173</v>
       </c>
       <c r="E130" s="3" t="str">
-        <f t="shared" ref="E130:E177" si="2">IF(C130="Pending","",D130/SUMIFS(D:D,A:A,A130,B:B,B130,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E130:E188" si="2">IF(C130="Pending","",D130/SUMIFS(D:D,A:A,A130,B:B,B130,C:C,"&lt;&gt;Pending"))</f>
         <v/>
       </c>
     </row>
@@ -3451,11 +3451,11 @@
         <v>15</v>
       </c>
       <c r="D169">
-        <v>176</v>
+        <v>515</v>
       </c>
       <c r="E169" s="3">
         <f t="shared" si="2"/>
-        <v>2.8956893715037842E-2</v>
+        <v>8.4731819677525508E-2</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -3469,11 +3469,11 @@
         <v>2</v>
       </c>
       <c r="D170">
-        <v>515</v>
+        <v>176</v>
       </c>
       <c r="E170" s="3">
-        <f t="shared" si="2"/>
-        <v>8.4731819677525508E-2</v>
+        <f>IF(C170="Pending","",D170/SUMIFS(D:D,A:A,A170,B:B,B170,C:C,"&lt;&gt;Pending"))</f>
+        <v>2.8956893715037842E-2</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -3598,6 +3598,204 @@
         <v>261</v>
       </c>
       <c r="E177" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>3803</v>
+      </c>
+      <c r="E178" s="3">
+        <f t="shared" si="2"/>
+        <v>0.61121825779492123</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1705</v>
+      </c>
+      <c r="E179" s="3">
+        <f t="shared" si="2"/>
+        <v>0.27402764384442302</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180">
+        <v>531</v>
+      </c>
+      <c r="E180" s="3">
+        <f t="shared" si="2"/>
+        <v>8.5342333654773381E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>183</v>
+      </c>
+      <c r="E181" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>2504</v>
+      </c>
+      <c r="E182" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183">
+        <v>5129</v>
+      </c>
+      <c r="E183" s="3">
+        <f t="shared" si="2"/>
+        <v>0.88721674450787058</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184">
+        <v>652</v>
+      </c>
+      <c r="E184" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11278325549212939</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>2945</v>
+      </c>
+      <c r="E185" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <v>4059</v>
+      </c>
+      <c r="E186" s="3">
+        <f t="shared" si="2"/>
+        <v>0.47916420729547871</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <v>4412</v>
+      </c>
+      <c r="E187" s="3">
+        <f t="shared" si="2"/>
+        <v>0.52083579270452129</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188">
+        <v>255</v>
+      </c>
+      <c r="E188" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A188" sqref="A188"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2752,7 +2752,7 @@
         <v>2173</v>
       </c>
       <c r="E130" s="3" t="str">
-        <f t="shared" ref="E130:E188" si="2">IF(C130="Pending","",D130/SUMIFS(D:D,A:A,A130,B:B,B130,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E130:E193" si="2">IF(C130="Pending","",D130/SUMIFS(D:D,A:A,A130,B:B,B130,C:C,"&lt;&gt;Pending"))</f>
         <v/>
       </c>
     </row>
@@ -3797,6 +3797,204 @@
       </c>
       <c r="E188" s="3" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>3912</v>
+      </c>
+      <c r="E189" s="3">
+        <f t="shared" si="2"/>
+        <v>0.60764212488350422</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>1773</v>
+      </c>
+      <c r="E190" s="3">
+        <f t="shared" si="2"/>
+        <v>0.27539608574091334</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191">
+        <v>564</v>
+      </c>
+      <c r="E191" s="3">
+        <f t="shared" si="2"/>
+        <v>8.7604846225535882E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>189</v>
+      </c>
+      <c r="E192" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9356943150046597E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>2751</v>
+      </c>
+      <c r="E193" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>5288</v>
+      </c>
+      <c r="E194" s="3">
+        <f t="shared" ref="E194:E199" si="3">IF(C194="Pending","",D194/SUMIFS(D:D,A:A,A194,B:B,B194,C:C,"&lt;&gt;Pending"))</f>
+        <v>0.88295207881115378</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195">
+        <v>701</v>
+      </c>
+      <c r="E195" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11704792118884622</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3</v>
+      </c>
+      <c r="D196">
+        <v>3200</v>
+      </c>
+      <c r="E196" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197">
+        <v>4272</v>
+      </c>
+      <c r="E197" s="3">
+        <f t="shared" si="3"/>
+        <v>0.47973048848961258</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198">
+        <v>4633</v>
+      </c>
+      <c r="E198" s="3">
+        <f t="shared" si="3"/>
+        <v>0.52026951151038747</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>284</v>
+      </c>
+      <c r="E199" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
+      <selection pane="bottomLeft" activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3904,7 +3904,7 @@
         <v>5288</v>
       </c>
       <c r="E194" s="3">
-        <f t="shared" ref="E194:E199" si="3">IF(C194="Pending","",D194/SUMIFS(D:D,A:A,A194,B:B,B194,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E194:E210" si="3">IF(C194="Pending","",D194/SUMIFS(D:D,A:A,A194,B:B,B194,C:C,"&lt;&gt;Pending"))</f>
         <v>0.88295207881115378</v>
       </c>
     </row>
@@ -3994,6 +3994,204 @@
         <v>284</v>
       </c>
       <c r="E199" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>4028</v>
+      </c>
+      <c r="E200" s="3">
+        <f t="shared" si="3"/>
+        <v>0.59771479447989317</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1930</v>
+      </c>
+      <c r="E201" s="3">
+        <f t="shared" si="3"/>
+        <v>0.28639263985754565</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202">
+        <v>588</v>
+      </c>
+      <c r="E202" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7253301676806644E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>193</v>
+      </c>
+      <c r="E203" s="3">
+        <f t="shared" si="3"/>
+        <v>2.8639263985754563E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>3</v>
+      </c>
+      <c r="D204">
+        <v>2928</v>
+      </c>
+      <c r="E204" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205">
+        <v>5513</v>
+      </c>
+      <c r="E205" s="3">
+        <f t="shared" si="3"/>
+        <v>0.88292761050608581</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206">
+        <v>731</v>
+      </c>
+      <c r="E206" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11707238949391416</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>3</v>
+      </c>
+      <c r="D207">
+        <v>3423</v>
+      </c>
+      <c r="E207" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208">
+        <v>4436</v>
+      </c>
+      <c r="E208" s="3">
+        <f t="shared" si="3"/>
+        <v>0.47372917556599742</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209">
+        <v>4928</v>
+      </c>
+      <c r="E209" s="3">
+        <f t="shared" si="3"/>
+        <v>0.52627082443400253</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210">
+        <v>303</v>
+      </c>
+      <c r="E210" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E210" sqref="E210"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3904,7 +3904,7 @@
         <v>5288</v>
       </c>
       <c r="E194" s="3">
-        <f t="shared" ref="E194:E210" si="3">IF(C194="Pending","",D194/SUMIFS(D:D,A:A,A194,B:B,B194,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E194:E221" si="3">IF(C194="Pending","",D194/SUMIFS(D:D,A:A,A194,B:B,B194,C:C,"&lt;&gt;Pending"))</f>
         <v>0.88295207881115378</v>
       </c>
     </row>
@@ -4192,6 +4192,204 @@
         <v>303</v>
       </c>
       <c r="E210" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>4108</v>
+      </c>
+      <c r="E211" s="3">
+        <f t="shared" si="3"/>
+        <v>0.59510357815442561</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1983</v>
+      </c>
+      <c r="E212" s="3">
+        <f t="shared" si="3"/>
+        <v>0.2872664059104737</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213">
+        <v>609</v>
+      </c>
+      <c r="E213" s="3">
+        <f t="shared" si="3"/>
+        <v>8.8222511951325508E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>203</v>
+      </c>
+      <c r="E214" s="3">
+        <f t="shared" si="3"/>
+        <v>2.940750398377517E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>3</v>
+      </c>
+      <c r="D215">
+        <v>3015</v>
+      </c>
+      <c r="E215" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216">
+        <v>5661</v>
+      </c>
+      <c r="E216" s="3">
+        <f t="shared" si="3"/>
+        <v>0.88246297739672641</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B217" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217">
+        <v>754</v>
+      </c>
+      <c r="E217" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11753702260327357</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218">
+        <v>3503</v>
+      </c>
+      <c r="E218" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B219" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219">
+        <v>4568</v>
+      </c>
+      <c r="E219" s="3">
+        <f t="shared" si="3"/>
+        <v>0.47578377252369547</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B220" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220">
+        <v>5033</v>
+      </c>
+      <c r="E220" s="3">
+        <f t="shared" si="3"/>
+        <v>0.52421622747630459</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" t="s">
+        <v>3</v>
+      </c>
+      <c r="D221">
+        <v>317</v>
+      </c>
+      <c r="E221" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A221" sqref="A221"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3904,7 +3904,7 @@
         <v>5288</v>
       </c>
       <c r="E194" s="3">
-        <f t="shared" ref="E194:E221" si="3">IF(C194="Pending","",D194/SUMIFS(D:D,A:A,A194,B:B,B194,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E194:E232" si="3">IF(C194="Pending","",D194/SUMIFS(D:D,A:A,A194,B:B,B194,C:C,"&lt;&gt;Pending"))</f>
         <v>0.88295207881115378</v>
       </c>
     </row>
@@ -4393,6 +4393,207 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>4257</v>
+      </c>
+      <c r="E222" s="3">
+        <f t="shared" si="3"/>
+        <v>0.59256681514476617</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>2059</v>
+      </c>
+      <c r="E223" s="3">
+        <f t="shared" si="3"/>
+        <v>0.28660913140311806</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224">
+        <v>645</v>
+      </c>
+      <c r="E224" s="3">
+        <f t="shared" si="3"/>
+        <v>8.9782850779510023E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>223</v>
+      </c>
+      <c r="E225" s="3">
+        <f t="shared" si="3"/>
+        <v>3.1041202672605791E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226">
+        <v>2868</v>
+      </c>
+      <c r="E226" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" t="s">
+        <v>4</v>
+      </c>
+      <c r="D227">
+        <v>5904</v>
+      </c>
+      <c r="E227" s="3">
+        <f t="shared" si="3"/>
+        <v>0.87674487674487678</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228" t="s">
+        <v>16</v>
+      </c>
+      <c r="D228">
+        <v>830</v>
+      </c>
+      <c r="E228" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12325512325512325</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B229" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" t="s">
+        <v>3</v>
+      </c>
+      <c r="D229">
+        <v>3318</v>
+      </c>
+      <c r="E229" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B230" t="s">
+        <v>12</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230">
+        <v>4639</v>
+      </c>
+      <c r="E230" s="3">
+        <f t="shared" si="3"/>
+        <v>0.47540479606476738</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B231" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231">
+        <v>5119</v>
+      </c>
+      <c r="E231" s="3">
+        <f t="shared" si="3"/>
+        <v>0.52459520393523262</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B232" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <v>294</v>
+      </c>
+      <c r="E232" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E232" sqref="E232"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E243" sqref="E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3904,7 +3904,7 @@
         <v>5288</v>
       </c>
       <c r="E194" s="3">
-        <f t="shared" ref="E194:E232" si="3">IF(C194="Pending","",D194/SUMIFS(D:D,A:A,A194,B:B,B194,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E194:E243" si="3">IF(C194="Pending","",D194/SUMIFS(D:D,A:A,A194,B:B,B194,C:C,"&lt;&gt;Pending"))</f>
         <v>0.88295207881115378</v>
       </c>
     </row>
@@ -4593,7 +4593,202 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="2"/>
+      <c r="A233" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>4427</v>
+      </c>
+      <c r="E233" s="3">
+        <f t="shared" si="3"/>
+        <v>0.58963771976558332</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>2154</v>
+      </c>
+      <c r="E234" s="3">
+        <f t="shared" si="3"/>
+        <v>0.28689397975492809</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235">
+        <v>688</v>
+      </c>
+      <c r="E235" s="3">
+        <f t="shared" si="3"/>
+        <v>9.1635588705380924E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>239</v>
+      </c>
+      <c r="E236" s="3">
+        <f t="shared" si="3"/>
+        <v>3.1832711774107618E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237">
+        <v>2858</v>
+      </c>
+      <c r="E237" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B238" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" t="s">
+        <v>4</v>
+      </c>
+      <c r="D238">
+        <v>6153</v>
+      </c>
+      <c r="E238" s="3">
+        <f t="shared" si="3"/>
+        <v>0.87251843448667044</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B239" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239">
+        <v>899</v>
+      </c>
+      <c r="E239" s="3">
+        <f t="shared" si="3"/>
+        <v>0.12748156551332956</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B240" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" t="s">
+        <v>3</v>
+      </c>
+      <c r="D240">
+        <v>3314</v>
+      </c>
+      <c r="E240" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B241" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" t="s">
+        <v>5</v>
+      </c>
+      <c r="D241">
+        <v>4763</v>
+      </c>
+      <c r="E241" s="3">
+        <f t="shared" si="3"/>
+        <v>0.47247296895149293</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242">
+        <v>5318</v>
+      </c>
+      <c r="E242" s="3">
+        <f t="shared" si="3"/>
+        <v>0.52752703104850707</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B243" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" t="s">
+        <v>3</v>
+      </c>
+      <c r="D243">
+        <v>285</v>
+      </c>
+      <c r="E243" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E243"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E243" sqref="E243"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A254" sqref="A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3904,7 +3904,7 @@
         <v>5288</v>
       </c>
       <c r="E194" s="3">
-        <f t="shared" ref="E194:E243" si="3">IF(C194="Pending","",D194/SUMIFS(D:D,A:A,A194,B:B,B194,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E194:E254" si="3">IF(C194="Pending","",D194/SUMIFS(D:D,A:A,A194,B:B,B194,C:C,"&lt;&gt;Pending"))</f>
         <v>0.88295207881115378</v>
       </c>
     </row>
@@ -4786,6 +4786,204 @@
         <v>285</v>
       </c>
       <c r="E243" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" t="s">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>4597</v>
+      </c>
+      <c r="E244" s="3">
+        <f t="shared" si="3"/>
+        <v>0.58875512295081966</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>2233</v>
+      </c>
+      <c r="E245" s="3">
+        <f t="shared" si="3"/>
+        <v>0.2859887295081967</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246">
+        <v>259</v>
+      </c>
+      <c r="E246" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3171106557377046E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>719</v>
+      </c>
+      <c r="E247" s="3">
+        <f t="shared" si="3"/>
+        <v>9.2085040983606564E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" t="s">
+        <v>3</v>
+      </c>
+      <c r="D248">
+        <v>2927</v>
+      </c>
+      <c r="E248" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B249" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249" t="s">
+        <v>4</v>
+      </c>
+      <c r="D249">
+        <v>6390</v>
+      </c>
+      <c r="E249" s="3">
+        <f t="shared" si="3"/>
+        <v>0.86738156644495723</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B250" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" t="s">
+        <v>16</v>
+      </c>
+      <c r="D250">
+        <v>977</v>
+      </c>
+      <c r="E250" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13261843355504277</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B251" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" t="s">
+        <v>3</v>
+      </c>
+      <c r="D251">
+        <v>3368</v>
+      </c>
+      <c r="E251" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B252" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>5</v>
+      </c>
+      <c r="D252">
+        <v>4916</v>
+      </c>
+      <c r="E252" s="3">
+        <f t="shared" si="3"/>
+        <v>0.47160399079048348</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B253" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253">
+        <v>5508</v>
+      </c>
+      <c r="E253" s="3">
+        <f t="shared" si="3"/>
+        <v>0.52839600920951646</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B254" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" t="s">
+        <v>3</v>
+      </c>
+      <c r="D254">
+        <v>311</v>
+      </c>
+      <c r="E254" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A254" sqref="A254"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D265" sqref="D265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3904,7 +3904,7 @@
         <v>5288</v>
       </c>
       <c r="E194" s="3">
-        <f t="shared" ref="E194:E254" si="3">IF(C194="Pending","",D194/SUMIFS(D:D,A:A,A194,B:B,B194,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E194:E257" si="3">IF(C194="Pending","",D194/SUMIFS(D:D,A:A,A194,B:B,B194,C:C,"&lt;&gt;Pending"))</f>
         <v>0.88295207881115378</v>
       </c>
     </row>
@@ -4985,6 +4985,204 @@
       </c>
       <c r="E254" s="3" t="str">
         <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" t="s">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>4937</v>
+      </c>
+      <c r="E255" s="3">
+        <f t="shared" si="3"/>
+        <v>0.58641168784891318</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>2447</v>
+      </c>
+      <c r="E256" s="3">
+        <f t="shared" si="3"/>
+        <v>0.29065209644850931</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257">
+        <v>761</v>
+      </c>
+      <c r="E257" s="3">
+        <f t="shared" si="3"/>
+        <v>9.0390782753296123E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258">
+        <v>274</v>
+      </c>
+      <c r="E258" s="3">
+        <f t="shared" ref="E258:E265" si="4">IF(C258="Pending","",D258/SUMIFS(D:D,A:A,A258,B:B,B258,C:C,"&lt;&gt;Pending"))</f>
+        <v>3.2545432949281389E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" t="s">
+        <v>3</v>
+      </c>
+      <c r="D259">
+        <v>3472</v>
+      </c>
+      <c r="E259" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B260" t="s">
+        <v>11</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+      <c r="D260">
+        <v>6603</v>
+      </c>
+      <c r="E260" s="3">
+        <f t="shared" si="4"/>
+        <v>0.86099882644412573</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B261" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" t="s">
+        <v>16</v>
+      </c>
+      <c r="D261">
+        <v>1066</v>
+      </c>
+      <c r="E261" s="3">
+        <f t="shared" si="4"/>
+        <v>0.1390011735558743</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B262" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" t="s">
+        <v>3</v>
+      </c>
+      <c r="D262">
+        <v>4222</v>
+      </c>
+      <c r="E262" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+      <c r="D263">
+        <v>5047</v>
+      </c>
+      <c r="E263" s="3">
+        <f t="shared" si="4"/>
+        <v>0.45260514752040176</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264">
+        <v>6104</v>
+      </c>
+      <c r="E264" s="3">
+        <f t="shared" si="4"/>
+        <v>0.54739485247959829</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" t="s">
+        <v>3</v>
+      </c>
+      <c r="D265">
+        <v>740</v>
+      </c>
+      <c r="E265" s="3" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E265"/>
+  <dimension ref="A1:E276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D265" sqref="D265"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A276" sqref="A276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5056,7 +5056,7 @@
         <v>274</v>
       </c>
       <c r="E258" s="3">
-        <f t="shared" ref="E258:E265" si="4">IF(C258="Pending","",D258/SUMIFS(D:D,A:A,A258,B:B,B258,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E258:E276" si="4">IF(C258="Pending","",D258/SUMIFS(D:D,A:A,A258,B:B,B258,C:C,"&lt;&gt;Pending"))</f>
         <v>3.2545432949281389E-2</v>
       </c>
     </row>
@@ -5182,6 +5182,204 @@
         <v>740</v>
       </c>
       <c r="E265" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" t="s">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>5129</v>
+      </c>
+      <c r="E266" s="3">
+        <f t="shared" si="4"/>
+        <v>0.58284090909090913</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>2578</v>
+      </c>
+      <c r="E267" s="3">
+        <f t="shared" si="4"/>
+        <v>0.29295454545454547</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" t="s">
+        <v>15</v>
+      </c>
+      <c r="D268">
+        <v>799</v>
+      </c>
+      <c r="E268" s="3">
+        <f t="shared" si="4"/>
+        <v>9.079545454545454E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269">
+        <v>294</v>
+      </c>
+      <c r="E269" s="3">
+        <f t="shared" si="4"/>
+        <v>3.3409090909090909E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B270" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" t="s">
+        <v>3</v>
+      </c>
+      <c r="D270">
+        <v>3861</v>
+      </c>
+      <c r="E270" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B271" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271" t="s">
+        <v>4</v>
+      </c>
+      <c r="D271">
+        <v>6782</v>
+      </c>
+      <c r="E271" s="3">
+        <f t="shared" si="4"/>
+        <v>0.85707064324529258</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B272" t="s">
+        <v>11</v>
+      </c>
+      <c r="C272" t="s">
+        <v>16</v>
+      </c>
+      <c r="D272">
+        <v>1131</v>
+      </c>
+      <c r="E272" s="3">
+        <f t="shared" si="4"/>
+        <v>0.14292935675470744</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B273" t="s">
+        <v>11</v>
+      </c>
+      <c r="C273" t="s">
+        <v>3</v>
+      </c>
+      <c r="D273">
+        <v>4748</v>
+      </c>
+      <c r="E273" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B274" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" t="s">
+        <v>5</v>
+      </c>
+      <c r="D274">
+        <v>5271</v>
+      </c>
+      <c r="E274" s="3">
+        <f t="shared" si="4"/>
+        <v>0.44462252214255588</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275">
+        <v>6584</v>
+      </c>
+      <c r="E275" s="3">
+        <f t="shared" si="4"/>
+        <v>0.55537747785744407</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B276" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" t="s">
+        <v>3</v>
+      </c>
+      <c r="D276">
+        <v>806</v>
+      </c>
+      <c r="E276" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A276" sqref="A276"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5056,7 +5056,7 @@
         <v>274</v>
       </c>
       <c r="E258" s="3">
-        <f t="shared" ref="E258:E276" si="4">IF(C258="Pending","",D258/SUMIFS(D:D,A:A,A258,B:B,B258,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E258:E287" si="4">IF(C258="Pending","",D258/SUMIFS(D:D,A:A,A258,B:B,B258,C:C,"&lt;&gt;Pending"))</f>
         <v>3.2545432949281389E-2</v>
       </c>
     </row>
@@ -5380,6 +5380,204 @@
         <v>806</v>
       </c>
       <c r="E276" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" t="s">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>5227</v>
+      </c>
+      <c r="E277" s="3">
+        <f t="shared" si="4"/>
+        <v>0.58129448398576511</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>2630</v>
+      </c>
+      <c r="E278" s="3">
+        <f t="shared" si="4"/>
+        <v>0.29248220640569395</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B279" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279">
+        <v>840</v>
+      </c>
+      <c r="E279" s="3">
+        <f t="shared" si="4"/>
+        <v>9.341637010676157E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B280" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" t="s">
+        <v>2</v>
+      </c>
+      <c r="D280">
+        <v>295</v>
+      </c>
+      <c r="E280" s="3">
+        <f t="shared" si="4"/>
+        <v>3.2806939501779361E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" t="s">
+        <v>3</v>
+      </c>
+      <c r="D281">
+        <v>4185</v>
+      </c>
+      <c r="E281" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B282" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" t="s">
+        <v>4</v>
+      </c>
+      <c r="D282">
+        <v>6917</v>
+      </c>
+      <c r="E282" s="3">
+        <f t="shared" si="4"/>
+        <v>0.85384520429576594</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B283" t="s">
+        <v>11</v>
+      </c>
+      <c r="C283" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283">
+        <v>1184</v>
+      </c>
+      <c r="E283" s="3">
+        <f t="shared" si="4"/>
+        <v>0.14615479570423404</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B284" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284" t="s">
+        <v>3</v>
+      </c>
+      <c r="D284">
+        <v>5076</v>
+      </c>
+      <c r="E284" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B285" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" t="s">
+        <v>5</v>
+      </c>
+      <c r="D285">
+        <v>5473</v>
+      </c>
+      <c r="E285" s="3">
+        <f t="shared" si="4"/>
+        <v>0.44287101472730217</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B286" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286">
+        <v>6885</v>
+      </c>
+      <c r="E286" s="3">
+        <f t="shared" si="4"/>
+        <v>0.55712898527269783</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B287" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287" t="s">
+        <v>3</v>
+      </c>
+      <c r="D287">
+        <v>819</v>
+      </c>
+      <c r="E287" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -401,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E287"/>
+  <dimension ref="A1:E298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E287" sqref="E287"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A298" sqref="A298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5056,7 +5056,7 @@
         <v>274</v>
       </c>
       <c r="E258" s="3">
-        <f t="shared" ref="E258:E287" si="4">IF(C258="Pending","",D258/SUMIFS(D:D,A:A,A258,B:B,B258,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E258:E298" si="4">IF(C258="Pending","",D258/SUMIFS(D:D,A:A,A258,B:B,B258,C:C,"&lt;&gt;Pending"))</f>
         <v>3.2545432949281389E-2</v>
       </c>
     </row>
@@ -5578,6 +5578,204 @@
         <v>819</v>
       </c>
       <c r="E287" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" t="s">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>5358</v>
+      </c>
+      <c r="E288" s="3">
+        <f t="shared" si="4"/>
+        <v>0.58232800782523642</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>2670</v>
+      </c>
+      <c r="E289" s="3">
+        <f t="shared" si="4"/>
+        <v>0.29018584936419956</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" t="s">
+        <v>15</v>
+      </c>
+      <c r="D290">
+        <v>876</v>
+      </c>
+      <c r="E290" s="3">
+        <f t="shared" si="4"/>
+        <v>9.5207042712748616E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" t="s">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>297</v>
+      </c>
+      <c r="E291" s="3">
+        <f t="shared" si="4"/>
+        <v>3.2279100097815455E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" t="s">
+        <v>3</v>
+      </c>
+      <c r="D292">
+        <v>4370</v>
+      </c>
+      <c r="E292" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293" t="s">
+        <v>4</v>
+      </c>
+      <c r="D293">
+        <v>7076</v>
+      </c>
+      <c r="E293" s="3">
+        <f t="shared" si="4"/>
+        <v>0.85324972868684434</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D294">
+        <v>1217</v>
+      </c>
+      <c r="E294" s="3">
+        <f t="shared" si="4"/>
+        <v>0.14675027131315568</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" t="s">
+        <v>3</v>
+      </c>
+      <c r="D295">
+        <v>5278</v>
+      </c>
+      <c r="E295" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" t="s">
+        <v>5</v>
+      </c>
+      <c r="D296">
+        <v>5689</v>
+      </c>
+      <c r="E296" s="3">
+        <f t="shared" si="4"/>
+        <v>0.44612609786700125</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B297" t="s">
+        <v>12</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297">
+        <v>7063</v>
+      </c>
+      <c r="E297" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5538739021329987</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" t="s">
+        <v>3</v>
+      </c>
+      <c r="D298">
+        <v>819</v>
+      </c>
+      <c r="E298" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="19">
   <si>
     <t>White</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Other/Multiracial</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
   </si>
 </sst>
 </file>
@@ -401,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E298"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A298" sqref="A298"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5056,7 +5062,7 @@
         <v>274</v>
       </c>
       <c r="E258" s="3">
-        <f t="shared" ref="E258:E298" si="4">IF(C258="Pending","",D258/SUMIFS(D:D,A:A,A258,B:B,B258,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E258:E309" si="4">IF(C258="Pending","",D258/SUMIFS(D:D,A:A,A258,B:B,B258,C:C,"&lt;&gt;Pending"))</f>
         <v>3.2545432949281389E-2</v>
       </c>
     </row>
@@ -5776,6 +5782,204 @@
         <v>819</v>
       </c>
       <c r="E298" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" t="s">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>5507</v>
+      </c>
+      <c r="E299" s="3">
+        <f t="shared" si="4"/>
+        <v>0.58005055824731411</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>2770</v>
+      </c>
+      <c r="E300" s="3">
+        <f t="shared" si="4"/>
+        <v>0.291763218875079</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" t="s">
+        <v>17</v>
+      </c>
+      <c r="D301">
+        <v>906</v>
+      </c>
+      <c r="E301" s="3">
+        <f t="shared" si="4"/>
+        <v>9.5428691805350754E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302" t="s">
+        <v>2</v>
+      </c>
+      <c r="D302">
+        <v>311</v>
+      </c>
+      <c r="E302" s="3">
+        <f t="shared" si="4"/>
+        <v>3.2757531072256159E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" t="s">
+        <v>3</v>
+      </c>
+      <c r="D303">
+        <v>4196</v>
+      </c>
+      <c r="E303" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B304" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" t="s">
+        <v>4</v>
+      </c>
+      <c r="D304">
+        <v>7268</v>
+      </c>
+      <c r="E304" s="3">
+        <f t="shared" si="4"/>
+        <v>0.84837165869032338</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B305" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305" t="s">
+        <v>18</v>
+      </c>
+      <c r="D305">
+        <v>1299</v>
+      </c>
+      <c r="E305" s="3">
+        <f t="shared" si="4"/>
+        <v>0.15162834130967667</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B306" t="s">
+        <v>11</v>
+      </c>
+      <c r="C306" t="s">
+        <v>3</v>
+      </c>
+      <c r="D306">
+        <v>5123</v>
+      </c>
+      <c r="E306" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B307" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" t="s">
+        <v>5</v>
+      </c>
+      <c r="D307">
+        <v>5751</v>
+      </c>
+      <c r="E307" s="3">
+        <f t="shared" si="4"/>
+        <v>0.44619442935836762</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308">
+        <v>7138</v>
+      </c>
+      <c r="E308" s="3">
+        <f t="shared" si="4"/>
+        <v>0.55380557064163238</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" t="s">
+        <v>3</v>
+      </c>
+      <c r="D309">
+        <v>801</v>
+      </c>
+      <c r="E309" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="19">
   <si>
     <t>White</t>
   </si>
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:E320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B309" sqref="B309"/>
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E310" sqref="E310:E313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5062,7 +5062,7 @@
         <v>274</v>
       </c>
       <c r="E258" s="3">
-        <f t="shared" ref="E258:E309" si="4">IF(C258="Pending","",D258/SUMIFS(D:D,A:A,A258,B:B,B258,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E258:E320" si="4">IF(C258="Pending","",D258/SUMIFS(D:D,A:A,A258,B:B,B258,C:C,"&lt;&gt;Pending"))</f>
         <v>3.2545432949281389E-2</v>
       </c>
     </row>
@@ -5980,6 +5980,204 @@
         <v>801</v>
       </c>
       <c r="E309" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B310" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" t="s">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>5575</v>
+      </c>
+      <c r="E310" s="3">
+        <f t="shared" si="4"/>
+        <v>0.57557299194714018</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>2854</v>
+      </c>
+      <c r="E311" s="3">
+        <f t="shared" si="4"/>
+        <v>0.29465207516002478</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" t="s">
+        <v>17</v>
+      </c>
+      <c r="D312">
+        <v>937</v>
+      </c>
+      <c r="E312" s="3">
+        <f t="shared" si="4"/>
+        <v>9.6737559364030556E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B313" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" t="s">
+        <v>2</v>
+      </c>
+      <c r="D313">
+        <v>320</v>
+      </c>
+      <c r="E313" s="3">
+        <f t="shared" si="4"/>
+        <v>3.303737352880446E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" t="s">
+        <v>3</v>
+      </c>
+      <c r="D314">
+        <v>4252</v>
+      </c>
+      <c r="E314" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B315" t="s">
+        <v>11</v>
+      </c>
+      <c r="C315" t="s">
+        <v>4</v>
+      </c>
+      <c r="D315">
+        <v>7386</v>
+      </c>
+      <c r="E315" s="3">
+        <f t="shared" si="4"/>
+        <v>0.84363221016561962</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B316" t="s">
+        <v>11</v>
+      </c>
+      <c r="C316" t="s">
+        <v>18</v>
+      </c>
+      <c r="D316">
+        <v>1369</v>
+      </c>
+      <c r="E316" s="3">
+        <f t="shared" si="4"/>
+        <v>0.15636778983438035</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B317" t="s">
+        <v>11</v>
+      </c>
+      <c r="C317" t="s">
+        <v>3</v>
+      </c>
+      <c r="D317">
+        <v>5183</v>
+      </c>
+      <c r="E317" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B318" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" t="s">
+        <v>5</v>
+      </c>
+      <c r="D318">
+        <v>5857</v>
+      </c>
+      <c r="E318" s="3">
+        <f t="shared" si="4"/>
+        <v>0.44563646047325572</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B319" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319">
+        <v>7286</v>
+      </c>
+      <c r="E319" s="3">
+        <f t="shared" si="4"/>
+        <v>0.55436353952674422</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" t="s">
+        <v>3</v>
+      </c>
+      <c r="D320">
+        <v>795</v>
+      </c>
+      <c r="E320" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="19">
   <si>
     <t>White</t>
   </si>
@@ -407,11 +407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E320"/>
+  <dimension ref="A1:E331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E310" sqref="E310:E313"/>
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E320" sqref="E320:E331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5062,7 +5062,7 @@
         <v>274</v>
       </c>
       <c r="E258" s="3">
-        <f t="shared" ref="E258:E320" si="4">IF(C258="Pending","",D258/SUMIFS(D:D,A:A,A258,B:B,B258,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E258:E321" si="4">IF(C258="Pending","",D258/SUMIFS(D:D,A:A,A258,B:B,B258,C:C,"&lt;&gt;Pending"))</f>
         <v>3.2545432949281389E-2</v>
       </c>
     </row>
@@ -6179,6 +6179,204 @@
       </c>
       <c r="E320" s="3" t="str">
         <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" t="s">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>5700</v>
+      </c>
+      <c r="E321" s="3">
+        <f t="shared" si="4"/>
+        <v>0.57471264367816088</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B322" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>2913</v>
+      </c>
+      <c r="E322" s="3">
+        <f t="shared" ref="E322:E331" si="5">IF(C322="Pending","",D322/SUMIFS(D:D,A:A,A322,B:B,B322,C:C,"&lt;&gt;Pending"))</f>
+        <v>0.29370840895341804</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B323" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" t="s">
+        <v>17</v>
+      </c>
+      <c r="D323">
+        <v>979</v>
+      </c>
+      <c r="E323" s="3">
+        <f t="shared" si="5"/>
+        <v>9.8709417221213958E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" t="s">
+        <v>2</v>
+      </c>
+      <c r="D324">
+        <v>326</v>
+      </c>
+      <c r="E324" s="3">
+        <f t="shared" si="5"/>
+        <v>3.2869530147207102E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B325" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" t="s">
+        <v>3</v>
+      </c>
+      <c r="D325">
+        <v>4178</v>
+      </c>
+      <c r="E325" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B326" t="s">
+        <v>11</v>
+      </c>
+      <c r="C326" t="s">
+        <v>4</v>
+      </c>
+      <c r="D326">
+        <v>7507</v>
+      </c>
+      <c r="E326" s="3">
+        <f t="shared" si="5"/>
+        <v>0.83457476375764317</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B327" t="s">
+        <v>11</v>
+      </c>
+      <c r="C327" t="s">
+        <v>18</v>
+      </c>
+      <c r="D327">
+        <v>1488</v>
+      </c>
+      <c r="E327" s="3">
+        <f t="shared" si="5"/>
+        <v>0.16542523624235686</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B328" t="s">
+        <v>11</v>
+      </c>
+      <c r="C328" t="s">
+        <v>3</v>
+      </c>
+      <c r="D328">
+        <v>5101</v>
+      </c>
+      <c r="E328" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+      <c r="C329" t="s">
+        <v>5</v>
+      </c>
+      <c r="D329">
+        <v>5952</v>
+      </c>
+      <c r="E329" s="3">
+        <f t="shared" si="5"/>
+        <v>0.44711538461538464</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B330" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330">
+        <v>7360</v>
+      </c>
+      <c r="E330" s="3">
+        <f t="shared" si="5"/>
+        <v>0.55288461538461542</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" t="s">
+        <v>3</v>
+      </c>
+      <c r="D331">
+        <v>784</v>
+      </c>
+      <c r="E331" s="3" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="19">
   <si>
     <t>White</t>
   </si>
@@ -122,11 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E331"/>
+  <dimension ref="A1:E342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E320" sqref="E320:E331"/>
+      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6214,7 +6215,7 @@
         <v>2913</v>
       </c>
       <c r="E322" s="3">
-        <f t="shared" ref="E322:E331" si="5">IF(C322="Pending","",D322/SUMIFS(D:D,A:A,A322,B:B,B322,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E322:E342" si="5">IF(C322="Pending","",D322/SUMIFS(D:D,A:A,A322,B:B,B322,C:C,"&lt;&gt;Pending"))</f>
         <v>0.29370840895341804</v>
       </c>
     </row>
@@ -6376,6 +6377,204 @@
         <v>784</v>
       </c>
       <c r="E331" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B332" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332" t="s">
+        <v>0</v>
+      </c>
+      <c r="D332" s="4">
+        <v>5859</v>
+      </c>
+      <c r="E332" s="3">
+        <f t="shared" si="5"/>
+        <v>0.57390537760799298</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B333" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1</v>
+      </c>
+      <c r="D333" s="4">
+        <v>2994</v>
+      </c>
+      <c r="E333" s="3">
+        <f t="shared" si="5"/>
+        <v>0.29327064354980897</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B334" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334" t="s">
+        <v>17</v>
+      </c>
+      <c r="D334" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E334" s="3">
+        <f t="shared" si="5"/>
+        <v>0.10010774806543246</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B335" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335" t="s">
+        <v>2</v>
+      </c>
+      <c r="D335" s="4">
+        <v>334</v>
+      </c>
+      <c r="E335" s="3">
+        <f t="shared" si="5"/>
+        <v>3.2716230776765602E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B336" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336" t="s">
+        <v>3</v>
+      </c>
+      <c r="D336" s="4">
+        <v>4232</v>
+      </c>
+      <c r="E336" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B337" t="s">
+        <v>11</v>
+      </c>
+      <c r="C337" t="s">
+        <v>4</v>
+      </c>
+      <c r="D337" s="4">
+        <v>7688</v>
+      </c>
+      <c r="E337" s="3">
+        <f t="shared" si="5"/>
+        <v>0.82782383977603102</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B338" t="s">
+        <v>11</v>
+      </c>
+      <c r="C338" t="s">
+        <v>18</v>
+      </c>
+      <c r="D338" s="4">
+        <v>1599</v>
+      </c>
+      <c r="E338" s="3">
+        <f t="shared" si="5"/>
+        <v>0.17217616022396898</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B339" t="s">
+        <v>11</v>
+      </c>
+      <c r="C339" t="s">
+        <v>3</v>
+      </c>
+      <c r="D339" s="4">
+        <v>5154</v>
+      </c>
+      <c r="E339" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B340" t="s">
+        <v>12</v>
+      </c>
+      <c r="C340" t="s">
+        <v>5</v>
+      </c>
+      <c r="D340" s="4">
+        <v>6089</v>
+      </c>
+      <c r="E340" s="3">
+        <f t="shared" si="5"/>
+        <v>0.4456887717757283</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B341" t="s">
+        <v>12</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" s="4">
+        <v>7573</v>
+      </c>
+      <c r="E341" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5543112282242717</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B342" t="s">
+        <v>12</v>
+      </c>
+      <c r="C342" t="s">
+        <v>3</v>
+      </c>
+      <c r="D342" s="4">
+        <v>779</v>
+      </c>
+      <c r="E342" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="19">
   <si>
     <t>White</t>
   </si>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E342"/>
+  <dimension ref="A1:E353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A342" sqref="A342"/>
+      <selection pane="bottomLeft" activeCell="A353" sqref="A353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6215,7 +6215,7 @@
         <v>2913</v>
       </c>
       <c r="E322" s="3">
-        <f t="shared" ref="E322:E342" si="5">IF(C322="Pending","",D322/SUMIFS(D:D,A:A,A322,B:B,B322,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E322:E353" si="5">IF(C322="Pending","",D322/SUMIFS(D:D,A:A,A322,B:B,B322,C:C,"&lt;&gt;Pending"))</f>
         <v>0.29370840895341804</v>
       </c>
     </row>
@@ -6575,6 +6575,204 @@
         <v>779</v>
       </c>
       <c r="E342" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>5968</v>
+      </c>
+      <c r="E343" s="3">
+        <f t="shared" si="5"/>
+        <v>0.57390133666698717</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>3043</v>
+      </c>
+      <c r="E344" s="3">
+        <f t="shared" si="5"/>
+        <v>0.29262429079719204</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D345">
+        <v>1047</v>
+      </c>
+      <c r="E345" s="3">
+        <f t="shared" si="5"/>
+        <v>0.10068275795749591</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D346">
+        <v>341</v>
+      </c>
+      <c r="E346" s="3">
+        <f t="shared" si="5"/>
+        <v>3.2791614578324836E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D347">
+        <v>4369</v>
+      </c>
+      <c r="E347" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D348">
+        <v>7780</v>
+      </c>
+      <c r="E348" s="3">
+        <f t="shared" si="5"/>
+        <v>0.82180204922361888</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D349">
+        <v>1687</v>
+      </c>
+      <c r="E349" s="3">
+        <f t="shared" si="5"/>
+        <v>0.17819795077638112</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D350">
+        <v>5301</v>
+      </c>
+      <c r="E350" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D351">
+        <v>6224</v>
+      </c>
+      <c r="E351" s="3">
+        <f t="shared" si="5"/>
+        <v>0.44587721183465862</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352">
+        <v>7735</v>
+      </c>
+      <c r="E352" s="3">
+        <f t="shared" si="5"/>
+        <v>0.55412278816534133</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D353">
+        <v>809</v>
+      </c>
+      <c r="E353" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="19">
   <si>
     <t>White</t>
   </si>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E353"/>
+  <dimension ref="A1:E364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A353" sqref="A353"/>
+      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D362" sqref="D362:E362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6215,7 +6215,7 @@
         <v>2913</v>
       </c>
       <c r="E322" s="3">
-        <f t="shared" ref="E322:E353" si="5">IF(C322="Pending","",D322/SUMIFS(D:D,A:A,A322,B:B,B322,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E322:E364" si="5">IF(C322="Pending","",D322/SUMIFS(D:D,A:A,A322,B:B,B322,C:C,"&lt;&gt;Pending"))</f>
         <v>0.29370840895341804</v>
       </c>
     </row>
@@ -6773,6 +6773,204 @@
         <v>809</v>
       </c>
       <c r="E353" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" t="s">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>6016</v>
+      </c>
+      <c r="E354" s="3">
+        <f t="shared" si="5"/>
+        <v>0.57257066717426475</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>3087</v>
+      </c>
+      <c r="E355" s="3">
+        <f t="shared" si="5"/>
+        <v>0.29380413057961358</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" t="s">
+        <v>17</v>
+      </c>
+      <c r="D356">
+        <v>1062</v>
+      </c>
+      <c r="E356" s="3">
+        <f t="shared" si="5"/>
+        <v>0.10107547349386123</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" t="s">
+        <v>2</v>
+      </c>
+      <c r="D357">
+        <v>342</v>
+      </c>
+      <c r="E357" s="3">
+        <f t="shared" si="5"/>
+        <v>3.25497287522604E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B358" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" t="s">
+        <v>3</v>
+      </c>
+      <c r="D358">
+        <v>4478</v>
+      </c>
+      <c r="E358" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B359" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359" t="s">
+        <v>4</v>
+      </c>
+      <c r="D359">
+        <v>7843</v>
+      </c>
+      <c r="E359" s="3">
+        <f t="shared" si="5"/>
+        <v>0.82056915672734887</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" t="s">
+        <v>18</v>
+      </c>
+      <c r="D360">
+        <v>1715</v>
+      </c>
+      <c r="E360" s="3">
+        <f t="shared" si="5"/>
+        <v>0.17943084327265119</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B361" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" t="s">
+        <v>3</v>
+      </c>
+      <c r="D361">
+        <v>5427</v>
+      </c>
+      <c r="E361" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B362" t="s">
+        <v>12</v>
+      </c>
+      <c r="C362" t="s">
+        <v>5</v>
+      </c>
+      <c r="D362">
+        <v>6299</v>
+      </c>
+      <c r="E362" s="3">
+        <f t="shared" si="5"/>
+        <v>0.44515901060070673</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B363" t="s">
+        <v>12</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363">
+        <v>7851</v>
+      </c>
+      <c r="E363" s="3">
+        <f t="shared" si="5"/>
+        <v>0.55484098939929327</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B364" t="s">
+        <v>12</v>
+      </c>
+      <c r="C364" t="s">
+        <v>3</v>
+      </c>
+      <c r="D364">
+        <v>835</v>
+      </c>
+      <c r="E364" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="19">
   <si>
     <t>White</t>
   </si>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E364"/>
+  <dimension ref="A1:E375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D362" sqref="D362:E362"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D373" sqref="D373:D375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6215,7 +6215,7 @@
         <v>2913</v>
       </c>
       <c r="E322" s="3">
-        <f t="shared" ref="E322:E364" si="5">IF(C322="Pending","",D322/SUMIFS(D:D,A:A,A322,B:B,B322,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E322:E375" si="5">IF(C322="Pending","",D322/SUMIFS(D:D,A:A,A322,B:B,B322,C:C,"&lt;&gt;Pending"))</f>
         <v>0.29370840895341804</v>
       </c>
     </row>
@@ -6971,6 +6971,204 @@
         <v>835</v>
       </c>
       <c r="E364" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B365" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>6137</v>
+      </c>
+      <c r="E365" s="3">
+        <f t="shared" si="5"/>
+        <v>0.57130888102774158</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>3178</v>
+      </c>
+      <c r="E366" s="3">
+        <f t="shared" si="5"/>
+        <v>0.29584807298454663</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D367">
+        <v>1085</v>
+      </c>
+      <c r="E367" s="3">
+        <f t="shared" si="5"/>
+        <v>0.10100539936697077</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B368" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D368">
+        <v>342</v>
+      </c>
+      <c r="E368" s="3">
+        <f t="shared" si="5"/>
+        <v>3.1837646620741018E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B369" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D369">
+        <v>4802</v>
+      </c>
+      <c r="E369" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B370" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D370">
+        <v>7973</v>
+      </c>
+      <c r="E370" s="3">
+        <f t="shared" si="5"/>
+        <v>0.81757588187038555</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B371" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D371">
+        <v>1779</v>
+      </c>
+      <c r="E371" s="3">
+        <f t="shared" si="5"/>
+        <v>0.18242411812961443</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B372" t="s">
+        <v>11</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D372">
+        <v>5792</v>
+      </c>
+      <c r="E372" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B373" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D373">
+        <v>6456</v>
+      </c>
+      <c r="E373" s="3">
+        <f t="shared" si="5"/>
+        <v>0.43939290818757232</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B374" t="s">
+        <v>12</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374">
+        <v>8237</v>
+      </c>
+      <c r="E374" s="3">
+        <f t="shared" si="5"/>
+        <v>0.56060709181242774</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B375" t="s">
+        <v>12</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D375">
+        <v>851</v>
+      </c>
+      <c r="E375" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="19">
   <si>
     <t>White</t>
   </si>
@@ -408,11 +408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E375"/>
+  <dimension ref="A1:E386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D373" sqref="D373:D375"/>
+      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D384" sqref="D384:D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6215,7 +6215,7 @@
         <v>2913</v>
       </c>
       <c r="E322" s="3">
-        <f t="shared" ref="E322:E375" si="5">IF(C322="Pending","",D322/SUMIFS(D:D,A:A,A322,B:B,B322,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E322:E385" si="5">IF(C322="Pending","",D322/SUMIFS(D:D,A:A,A322,B:B,B322,C:C,"&lt;&gt;Pending"))</f>
         <v>0.29370840895341804</v>
       </c>
     </row>
@@ -7170,6 +7170,204 @@
       </c>
       <c r="E375" s="3" t="str">
         <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>6402</v>
+      </c>
+      <c r="E376" s="3">
+        <f t="shared" si="5"/>
+        <v>0.56715095676824945</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>3396</v>
+      </c>
+      <c r="E377" s="3">
+        <f t="shared" si="5"/>
+        <v>0.3008504606661942</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D378">
+        <v>1145</v>
+      </c>
+      <c r="E378" s="3">
+        <f t="shared" si="5"/>
+        <v>0.1014351523742027</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D379">
+        <v>345</v>
+      </c>
+      <c r="E379" s="3">
+        <f t="shared" si="5"/>
+        <v>3.0563430191353651E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D380">
+        <v>4823</v>
+      </c>
+      <c r="E380" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D381">
+        <v>8134</v>
+      </c>
+      <c r="E381" s="3">
+        <f t="shared" si="5"/>
+        <v>0.80862908837856651</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D382">
+        <v>1925</v>
+      </c>
+      <c r="E382" s="3">
+        <f t="shared" si="5"/>
+        <v>0.19137091162143355</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D383">
+        <v>6052</v>
+      </c>
+      <c r="E383" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D384">
+        <v>6606</v>
+      </c>
+      <c r="E384" s="3">
+        <f t="shared" si="5"/>
+        <v>0.43315192446396955</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385">
+        <v>8645</v>
+      </c>
+      <c r="E385" s="3">
+        <f t="shared" si="5"/>
+        <v>0.56684807553603045</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D386">
+        <v>860</v>
+      </c>
+      <c r="E386" s="3" t="str">
+        <f t="shared" ref="E386" si="6">IF(C386="Pending","",D386/SUMIFS(D:D,A:A,A386,B:B,B386,C:C,"&lt;&gt;Pending"))</f>
         <v/>
       </c>
     </row>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>Other/Multiracial</t>
-  </si>
-  <si>
-    <t>Hispanic</t>
   </si>
 </sst>
 </file>
@@ -408,11 +402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E386"/>
+  <dimension ref="A1:E397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D384" sqref="D384:D386"/>
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E397" sqref="E397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5830,8 +5824,8 @@
       <c r="B301" t="s">
         <v>7</v>
       </c>
-      <c r="C301" t="s">
-        <v>17</v>
+      <c r="C301" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D301">
         <v>906</v>
@@ -5903,7 +5897,7 @@
         <v>11</v>
       </c>
       <c r="C305" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D305">
         <v>1299</v>
@@ -6028,8 +6022,8 @@
       <c r="B312" t="s">
         <v>7</v>
       </c>
-      <c r="C312" t="s">
-        <v>17</v>
+      <c r="C312" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D312">
         <v>937</v>
@@ -6101,7 +6095,7 @@
         <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D316">
         <v>1369</v>
@@ -6226,8 +6220,8 @@
       <c r="B323" t="s">
         <v>7</v>
       </c>
-      <c r="C323" t="s">
-        <v>17</v>
+      <c r="C323" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D323">
         <v>979</v>
@@ -6299,7 +6293,7 @@
         <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D327">
         <v>1488</v>
@@ -6424,8 +6418,8 @@
       <c r="B334" t="s">
         <v>7</v>
       </c>
-      <c r="C334" t="s">
-        <v>17</v>
+      <c r="C334" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D334" s="4">
         <v>1022</v>
@@ -6497,7 +6491,7 @@
         <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D338" s="4">
         <v>1599</v>
@@ -6623,7 +6617,7 @@
         <v>7</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D345">
         <v>1047</v>
@@ -6695,7 +6689,7 @@
         <v>11</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D349">
         <v>1687</v>
@@ -6820,8 +6814,8 @@
       <c r="B356" t="s">
         <v>7</v>
       </c>
-      <c r="C356" t="s">
-        <v>17</v>
+      <c r="C356" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D356">
         <v>1062</v>
@@ -6893,7 +6887,7 @@
         <v>11</v>
       </c>
       <c r="C360" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D360">
         <v>1715</v>
@@ -7019,7 +7013,7 @@
         <v>7</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D367">
         <v>1085</v>
@@ -7091,7 +7085,7 @@
         <v>11</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D371">
         <v>1779</v>
@@ -7217,7 +7211,7 @@
         <v>7</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D378">
         <v>1145</v>
@@ -7289,7 +7283,7 @@
         <v>11</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D382">
         <v>1925</v>
@@ -7367,7 +7361,205 @@
         <v>860</v>
       </c>
       <c r="E386" s="3" t="str">
-        <f t="shared" ref="E386" si="6">IF(C386="Pending","",D386/SUMIFS(D:D,A:A,A386,B:B,B386,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E386:E397" si="6">IF(C386="Pending","",D386/SUMIFS(D:D,A:A,A386,B:B,B386,C:C,"&lt;&gt;Pending"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387" t="s">
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <v>6611</v>
+      </c>
+      <c r="E387" s="3">
+        <f t="shared" si="6"/>
+        <v>0.56542935340403699</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>3518</v>
+      </c>
+      <c r="E388" s="3">
+        <f t="shared" si="6"/>
+        <v>0.30088949709202872</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D389">
+        <v>1215</v>
+      </c>
+      <c r="E389" s="3">
+        <f t="shared" si="6"/>
+        <v>0.10391720834758809</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390" t="s">
+        <v>2</v>
+      </c>
+      <c r="D390">
+        <v>348</v>
+      </c>
+      <c r="E390" s="3">
+        <f t="shared" si="6"/>
+        <v>2.9763941156346219E-2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391" t="s">
+        <v>3</v>
+      </c>
+      <c r="D391">
+        <v>4678</v>
+      </c>
+      <c r="E391" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C392" t="s">
+        <v>4</v>
+      </c>
+      <c r="D392">
+        <v>8330</v>
+      </c>
+      <c r="E392" s="3">
+        <f t="shared" si="6"/>
+        <v>0.80150101029539111</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C393" t="s">
+        <v>16</v>
+      </c>
+      <c r="D393">
+        <v>2063</v>
+      </c>
+      <c r="E393" s="3">
+        <f t="shared" si="6"/>
+        <v>0.19849898970460886</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C394" t="s">
+        <v>3</v>
+      </c>
+      <c r="D394">
+        <v>5977</v>
+      </c>
+      <c r="E394" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C395" t="s">
+        <v>5</v>
+      </c>
+      <c r="D395">
+        <v>6697</v>
+      </c>
+      <c r="E395" s="3">
+        <f t="shared" si="6"/>
+        <v>0.43173027333677155</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C396" t="s">
+        <v>6</v>
+      </c>
+      <c r="D396">
+        <v>8815</v>
+      </c>
+      <c r="E396" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5682697266632285</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C397" t="s">
+        <v>3</v>
+      </c>
+      <c r="D397">
+        <v>858</v>
+      </c>
+      <c r="E397" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -402,11 +402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E397"/>
+  <dimension ref="A1:E408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E397" sqref="E397"/>
+      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A409" sqref="A409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7361,7 +7361,7 @@
         <v>860</v>
       </c>
       <c r="E386" s="3" t="str">
-        <f t="shared" ref="E386:E397" si="6">IF(C386="Pending","",D386/SUMIFS(D:D,A:A,A386,B:B,B386,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E386:E408" si="6">IF(C386="Pending","",D386/SUMIFS(D:D,A:A,A386,B:B,B386,C:C,"&lt;&gt;Pending"))</f>
         <v/>
       </c>
     </row>
@@ -7559,6 +7559,204 @@
         <v>858</v>
       </c>
       <c r="E397" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C398" t="s">
+        <v>0</v>
+      </c>
+      <c r="D398">
+        <v>6767</v>
+      </c>
+      <c r="E398" s="3">
+        <f t="shared" si="6"/>
+        <v>0.56466955941255004</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>3572</v>
+      </c>
+      <c r="E399" s="3">
+        <f t="shared" si="6"/>
+        <v>0.29806408544726304</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C400" t="s">
+        <v>15</v>
+      </c>
+      <c r="D400">
+        <v>1292</v>
+      </c>
+      <c r="E400" s="3">
+        <f t="shared" si="6"/>
+        <v>0.10781041388518024</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C401" t="s">
+        <v>2</v>
+      </c>
+      <c r="D401">
+        <v>353</v>
+      </c>
+      <c r="E401" s="3">
+        <f t="shared" si="6"/>
+        <v>2.9455941255006675E-2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C402" t="s">
+        <v>3</v>
+      </c>
+      <c r="D402">
+        <v>4715</v>
+      </c>
+      <c r="E402" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C403" t="s">
+        <v>4</v>
+      </c>
+      <c r="D403">
+        <v>8468</v>
+      </c>
+      <c r="E403" s="3">
+        <f t="shared" si="6"/>
+        <v>0.79214218896164645</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C404" t="s">
+        <v>16</v>
+      </c>
+      <c r="D404">
+        <v>2222</v>
+      </c>
+      <c r="E404" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2078578110383536</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C405" t="s">
+        <v>3</v>
+      </c>
+      <c r="D405">
+        <v>6009</v>
+      </c>
+      <c r="E405" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C406" t="s">
+        <v>5</v>
+      </c>
+      <c r="D406">
+        <v>6832</v>
+      </c>
+      <c r="E406" s="3">
+        <f t="shared" si="6"/>
+        <v>0.43112260995772073</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C407" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407">
+        <v>9015</v>
+      </c>
+      <c r="E407" s="3">
+        <f t="shared" si="6"/>
+        <v>0.56887739004227933</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C408" t="s">
+        <v>3</v>
+      </c>
+      <c r="D408">
+        <v>852</v>
+      </c>
+      <c r="E408" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -402,11 +402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E408"/>
+  <dimension ref="A1:E419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A409" sqref="A409"/>
+      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A409" sqref="A409:E419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7361,7 +7361,7 @@
         <v>860</v>
       </c>
       <c r="E386" s="3" t="str">
-        <f t="shared" ref="E386:E408" si="6">IF(C386="Pending","",D386/SUMIFS(D:D,A:A,A386,B:B,B386,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E386:E419" si="6">IF(C386="Pending","",D386/SUMIFS(D:D,A:A,A386,B:B,B386,C:C,"&lt;&gt;Pending"))</f>
         <v/>
       </c>
     </row>
@@ -7757,6 +7757,204 @@
         <v>852</v>
       </c>
       <c r="E408" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C409" t="s">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>6849</v>
+      </c>
+      <c r="E409" s="3">
+        <f t="shared" si="6"/>
+        <v>0.56079587324981572</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>3609</v>
+      </c>
+      <c r="E410" s="3">
+        <f t="shared" si="6"/>
+        <v>0.29550478997789242</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C411" t="s">
+        <v>15</v>
+      </c>
+      <c r="D411">
+        <v>1398</v>
+      </c>
+      <c r="E411" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11446818963399656</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C412" t="s">
+        <v>2</v>
+      </c>
+      <c r="D412">
+        <v>357</v>
+      </c>
+      <c r="E412" s="3">
+        <f t="shared" si="6"/>
+        <v>2.923114713829526E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C413" t="s">
+        <v>3</v>
+      </c>
+      <c r="D413">
+        <v>4757</v>
+      </c>
+      <c r="E413" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C414" t="s">
+        <v>4</v>
+      </c>
+      <c r="D414">
+        <v>8553</v>
+      </c>
+      <c r="E414" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78626585769442914</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C415" t="s">
+        <v>16</v>
+      </c>
+      <c r="D415">
+        <v>2325</v>
+      </c>
+      <c r="E415" s="3">
+        <f t="shared" si="6"/>
+        <v>0.21373414230557089</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C416" t="s">
+        <v>3</v>
+      </c>
+      <c r="D416">
+        <v>6092</v>
+      </c>
+      <c r="E416" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C417" t="s">
+        <v>5</v>
+      </c>
+      <c r="D417">
+        <v>6938</v>
+      </c>
+      <c r="E417" s="3">
+        <f t="shared" si="6"/>
+        <v>0.43184364496452132</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418">
+        <v>9128</v>
+      </c>
+      <c r="E418" s="3">
+        <f t="shared" si="6"/>
+        <v>0.56815635503547868</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C419" t="s">
+        <v>3</v>
+      </c>
+      <c r="D419">
+        <v>904</v>
+      </c>
+      <c r="E419" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -402,11 +402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E419"/>
+  <dimension ref="A1:E430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A409" sqref="A409:E419"/>
+      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A430" sqref="A430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7361,7 +7361,7 @@
         <v>860</v>
       </c>
       <c r="E386" s="3" t="str">
-        <f t="shared" ref="E386:E419" si="6">IF(C386="Pending","",D386/SUMIFS(D:D,A:A,A386,B:B,B386,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E386:E430" si="6">IF(C386="Pending","",D386/SUMIFS(D:D,A:A,A386,B:B,B386,C:C,"&lt;&gt;Pending"))</f>
         <v/>
       </c>
     </row>
@@ -7955,6 +7955,204 @@
         <v>904</v>
       </c>
       <c r="E419" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C420" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <v>6991</v>
+      </c>
+      <c r="E420" s="3">
+        <f t="shared" si="6"/>
+        <v>0.56044572711239382</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D421">
+        <v>3663</v>
+      </c>
+      <c r="E421" s="3">
+        <f t="shared" si="6"/>
+        <v>0.29365079365079366</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D422">
+        <v>1458</v>
+      </c>
+      <c r="E422" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11688311688311688</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C423" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D423">
+        <v>362</v>
+      </c>
+      <c r="E423" s="3">
+        <f t="shared" si="6"/>
+        <v>2.9020362353695688E-2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D424">
+        <v>4814</v>
+      </c>
+      <c r="E424" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D425">
+        <v>8657</v>
+      </c>
+      <c r="E425" s="3">
+        <f t="shared" si="6"/>
+        <v>0.77976941091695195</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D426">
+        <v>2445</v>
+      </c>
+      <c r="E426" s="3">
+        <f t="shared" si="6"/>
+        <v>0.2202305890830481</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C427" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D427">
+        <v>6186</v>
+      </c>
+      <c r="E427" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C428" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D428">
+        <v>7089</v>
+      </c>
+      <c r="E428" s="3">
+        <f t="shared" si="6"/>
+        <v>0.43275746291435202</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C429" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D429">
+        <v>9292</v>
+      </c>
+      <c r="E429" s="3">
+        <f t="shared" si="6"/>
+        <v>0.56724253708564798</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D430">
+        <v>907</v>
+      </c>
+      <c r="E430" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="17">
   <si>
     <t>White</t>
   </si>
@@ -402,11 +402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E430"/>
+  <dimension ref="A1:E441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A430" sqref="A430"/>
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D434" sqref="D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7361,7 +7361,7 @@
         <v>860</v>
       </c>
       <c r="E386" s="3" t="str">
-        <f t="shared" ref="E386:E430" si="6">IF(C386="Pending","",D386/SUMIFS(D:D,A:A,A386,B:B,B386,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E386:E441" si="6">IF(C386="Pending","",D386/SUMIFS(D:D,A:A,A386,B:B,B386,C:C,"&lt;&gt;Pending"))</f>
         <v/>
       </c>
     </row>
@@ -8153,6 +8153,204 @@
         <v>907</v>
       </c>
       <c r="E430" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C431" t="s">
+        <v>0</v>
+      </c>
+      <c r="D431" s="4">
+        <v>7045</v>
+      </c>
+      <c r="E431" s="3">
+        <f t="shared" si="6"/>
+        <v>0.55943778289525925</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1</v>
+      </c>
+      <c r="D432" s="4">
+        <v>3687</v>
+      </c>
+      <c r="E432" s="3">
+        <f t="shared" si="6"/>
+        <v>0.29278170412133725</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C433" t="s">
+        <v>15</v>
+      </c>
+      <c r="D433" s="4">
+        <v>1497</v>
+      </c>
+      <c r="E433" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11887556579051854</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C434" t="s">
+        <v>2</v>
+      </c>
+      <c r="D434" s="4">
+        <v>364</v>
+      </c>
+      <c r="E434" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8904947192884937E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C435" t="s">
+        <v>3</v>
+      </c>
+      <c r="D435" s="4">
+        <v>4795</v>
+      </c>
+      <c r="E435" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C436" t="s">
+        <v>4</v>
+      </c>
+      <c r="D436" s="4">
+        <v>8732</v>
+      </c>
+      <c r="E436" s="3">
+        <f t="shared" si="6"/>
+        <v>0.77756010685663401</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437" t="s">
+        <v>16</v>
+      </c>
+      <c r="D437" s="4">
+        <v>2498</v>
+      </c>
+      <c r="E437" s="3">
+        <f t="shared" si="6"/>
+        <v>0.22243989314336599</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C438" t="s">
+        <v>3</v>
+      </c>
+      <c r="D438" s="4">
+        <v>6158</v>
+      </c>
+      <c r="E438" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C439" t="s">
+        <v>5</v>
+      </c>
+      <c r="D439" s="4">
+        <v>7147</v>
+      </c>
+      <c r="E439" s="3">
+        <f t="shared" si="6"/>
+        <v>0.43349305513434827</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C440" t="s">
+        <v>6</v>
+      </c>
+      <c r="D440" s="4">
+        <v>9340</v>
+      </c>
+      <c r="E440" s="3">
+        <f t="shared" si="6"/>
+        <v>0.56650694486565167</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C441" t="s">
+        <v>3</v>
+      </c>
+      <c r="D441" s="4">
+        <v>901</v>
+      </c>
+      <c r="E441" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="20">
   <si>
     <t>White</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Other/Multiracial</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>SEX</t>
   </si>
 </sst>
 </file>
@@ -402,11 +411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E441"/>
+  <dimension ref="A1:E452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D434" sqref="D434"/>
+      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A442" sqref="A442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7361,7 +7370,7 @@
         <v>860</v>
       </c>
       <c r="E386" s="3" t="str">
-        <f t="shared" ref="E386:E441" si="6">IF(C386="Pending","",D386/SUMIFS(D:D,A:A,A386,B:B,B386,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E386:E449" si="6">IF(C386="Pending","",D386/SUMIFS(D:D,A:A,A386,B:B,B386,C:C,"&lt;&gt;Pending"))</f>
         <v/>
       </c>
     </row>
@@ -8352,6 +8361,204 @@
       </c>
       <c r="E441" s="3" t="str">
         <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B442" t="s">
+        <v>7</v>
+      </c>
+      <c r="C442" t="s">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>7099</v>
+      </c>
+      <c r="E442" s="3">
+        <f t="shared" si="6"/>
+        <v>0.55656605252842017</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B443" t="s">
+        <v>7</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>3747</v>
+      </c>
+      <c r="E443" s="3">
+        <f t="shared" si="6"/>
+        <v>0.29376715013720112</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B444" t="s">
+        <v>7</v>
+      </c>
+      <c r="C444" t="s">
+        <v>17</v>
+      </c>
+      <c r="D444">
+        <v>1543</v>
+      </c>
+      <c r="E444" s="3">
+        <f t="shared" si="6"/>
+        <v>0.12097216777734222</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B445" t="s">
+        <v>7</v>
+      </c>
+      <c r="C445" t="s">
+        <v>2</v>
+      </c>
+      <c r="D445">
+        <v>366</v>
+      </c>
+      <c r="E445" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8694629557036458E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B446" t="s">
+        <v>7</v>
+      </c>
+      <c r="C446" t="s">
+        <v>3</v>
+      </c>
+      <c r="D446">
+        <v>5256</v>
+      </c>
+      <c r="E446" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B447" t="s">
+        <v>11</v>
+      </c>
+      <c r="C447" t="s">
+        <v>4</v>
+      </c>
+      <c r="D447">
+        <v>8829</v>
+      </c>
+      <c r="E447" s="3">
+        <f t="shared" si="6"/>
+        <v>0.77460958062818042</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B448" t="s">
+        <v>11</v>
+      </c>
+      <c r="C448" t="s">
+        <v>18</v>
+      </c>
+      <c r="D448">
+        <v>2569</v>
+      </c>
+      <c r="E448" s="3">
+        <f t="shared" si="6"/>
+        <v>0.22539041937181961</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B449" t="s">
+        <v>11</v>
+      </c>
+      <c r="C449" t="s">
+        <v>3</v>
+      </c>
+      <c r="D449">
+        <v>6613</v>
+      </c>
+      <c r="E449" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B450" t="s">
+        <v>19</v>
+      </c>
+      <c r="C450" t="s">
+        <v>5</v>
+      </c>
+      <c r="D450">
+        <v>7414</v>
+      </c>
+      <c r="E450" s="3">
+        <f t="shared" ref="E450:E452" si="7">IF(C450="Pending","",D450/SUMIFS(D:D,A:A,A450,B:B,B450,C:C,"&lt;&gt;Pending"))</f>
+        <v>0.43371943371943372</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B451" t="s">
+        <v>19</v>
+      </c>
+      <c r="C451" t="s">
+        <v>6</v>
+      </c>
+      <c r="D451">
+        <v>9680</v>
+      </c>
+      <c r="E451" s="3">
+        <f t="shared" si="7"/>
+        <v>0.56628056628056633</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B452" t="s">
+        <v>19</v>
+      </c>
+      <c r="C452" t="s">
+        <v>3</v>
+      </c>
+      <c r="D452">
+        <v>917</v>
+      </c>
+      <c r="E452" s="3" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>

--- a/TN_Demographics.xlsx
+++ b/TN_Demographics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="20">
   <si>
     <t>White</t>
   </si>
@@ -411,11 +411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E452"/>
+  <dimension ref="A1:E463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A442" sqref="A442"/>
+      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A463" sqref="A463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8522,7 +8522,7 @@
         <v>7414</v>
       </c>
       <c r="E450" s="3">
-        <f t="shared" ref="E450:E452" si="7">IF(C450="Pending","",D450/SUMIFS(D:D,A:A,A450,B:B,B450,C:C,"&lt;&gt;Pending"))</f>
+        <f t="shared" ref="E450:E463" si="7">IF(C450="Pending","",D450/SUMIFS(D:D,A:A,A450,B:B,B450,C:C,"&lt;&gt;Pending"))</f>
         <v>0.43371943371943372</v>
       </c>
     </row>
@@ -8558,6 +8558,204 @@
         <v>917</v>
       </c>
       <c r="E452" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C453" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D453" s="4">
+        <v>7258</v>
+      </c>
+      <c r="E453" s="3">
+        <f t="shared" si="7"/>
+        <v>0.55463854500993426</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C454" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D454" s="4">
+        <v>3810</v>
+      </c>
+      <c r="E454" s="3">
+        <f t="shared" si="7"/>
+        <v>0.29115084823475468</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C455" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D455" s="4">
+        <v>1650</v>
+      </c>
+      <c r="E455" s="3">
+        <f t="shared" si="7"/>
+        <v>0.12608895002292525</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D456" s="4">
+        <v>368</v>
+      </c>
+      <c r="E456" s="3">
+        <f t="shared" si="7"/>
+        <v>2.8121656732385755E-2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D457" s="4">
+        <v>5292</v>
+      </c>
+      <c r="E457" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C458" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D458" s="4">
+        <v>8982</v>
+      </c>
+      <c r="E458" s="3">
+        <f t="shared" si="7"/>
+        <v>0.76449059494425053</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C459" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D459" s="4">
+        <v>2767</v>
+      </c>
+      <c r="E459" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23550940505574944</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C460" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D460" s="4">
+        <v>6629</v>
+      </c>
+      <c r="E460" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C461" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D461" s="4">
+        <v>7597</v>
+      </c>
+      <c r="E461" s="3">
+        <f t="shared" si="7"/>
+        <v>0.43485975958786494</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C462" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D462" s="4">
+        <v>9873</v>
+      </c>
+      <c r="E462" s="3">
+        <f t="shared" si="7"/>
+        <v>0.56514024041213506</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C463" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D463" s="4">
+        <v>908</v>
+      </c>
+      <c r="E463" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
